--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3581895.983321057</v>
+        <v>3579510.137669162</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9275893.047360523</v>
+        <v>9275893.047360525</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,58 +1218,58 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>6.056421089299432</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>6.876045741711437</v>
@@ -1288,73 +1288,73 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="S10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.2220007904853</v>
+        <v>335.2220007904854</v>
       </c>
       <c r="C11" t="n">
         <v>317.7610508980123</v>
@@ -1376,16 +1376,16 @@
         <v>307.1712007476877</v>
       </c>
       <c r="E11" t="n">
-        <v>334.4185291992665</v>
+        <v>334.4185291992666</v>
       </c>
       <c r="F11" t="n">
         <v>359.3642048687162</v>
       </c>
       <c r="G11" t="n">
-        <v>363.4363382927601</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.3668405471868</v>
+        <v>247.3668405471869</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.27873032675964</v>
+        <v>62.27873032675966</v>
       </c>
       <c r="T11" t="n">
-        <v>156.5219295167263</v>
+        <v>156.5219295167264</v>
       </c>
       <c r="U11" t="n">
-        <v>203.4854473668908</v>
+        <v>203.4854473668909</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.2404175971396</v>
       </c>
       <c r="W11" t="n">
-        <v>301.7291278444177</v>
+        <v>301.7291278444178</v>
       </c>
       <c r="X11" t="n">
-        <v>322.2192598054738</v>
+        <v>193.9476860625874</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.2586033445516</v>
+        <v>338.7260977830583</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H12" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I12" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033782</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.320139308942</v>
+        <v>132.3201393089421</v>
       </c>
       <c r="C13" t="n">
-        <v>119.7349802256325</v>
+        <v>119.7349802256326</v>
       </c>
       <c r="D13" t="n">
         <v>101.1036321452171</v>
       </c>
       <c r="E13" t="n">
-        <v>98.92212177357388</v>
+        <v>98.92212177357393</v>
       </c>
       <c r="F13" t="n">
-        <v>97.90920714993595</v>
+        <v>97.90920714993601</v>
       </c>
       <c r="G13" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H13" t="n">
-        <v>97.34867476819468</v>
+        <v>97.34867476819473</v>
       </c>
       <c r="I13" t="n">
-        <v>49.19742657619177</v>
+        <v>49.1974265761918</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95385637281382</v>
+        <v>41.95385637281385</v>
       </c>
       <c r="S13" t="n">
         <v>142.4639788279847</v>
@@ -1585,16 +1585,16 @@
         <v>238.7006445763407</v>
       </c>
       <c r="V13" t="n">
-        <v>204.6258024508327</v>
+        <v>204.6258024508328</v>
       </c>
       <c r="W13" t="n">
-        <v>239.0111574635957</v>
+        <v>239.0111574635958</v>
       </c>
       <c r="X13" t="n">
         <v>178.1978145160419</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0728124790995</v>
+        <v>171.0728124790996</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.2220007904853</v>
+        <v>335.2220007904854</v>
       </c>
       <c r="C14" t="n">
         <v>317.7610508980123</v>
       </c>
       <c r="D14" t="n">
-        <v>307.1712007476876</v>
+        <v>174.8274935807576</v>
       </c>
       <c r="E14" t="n">
-        <v>334.4185291992665</v>
+        <v>334.4185291992666</v>
       </c>
       <c r="F14" t="n">
-        <v>359.3642048687161</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>28.25035577384041</v>
+        <v>363.4363382927601</v>
       </c>
       <c r="H14" t="n">
-        <v>247.3668405471868</v>
+        <v>247.3668405471869</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.27873032675964</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.5219295167264</v>
       </c>
       <c r="U14" t="n">
-        <v>203.4854473668908</v>
+        <v>203.4854473668909</v>
       </c>
       <c r="V14" t="n">
         <v>280.2404175971396</v>
       </c>
       <c r="W14" t="n">
-        <v>301.7291278444177</v>
+        <v>301.7291278444178</v>
       </c>
       <c r="X14" t="n">
-        <v>322.2192598054737</v>
+        <v>322.2192598054738</v>
       </c>
       <c r="Y14" t="n">
         <v>338.7260977830583</v>
@@ -1701,10 +1701,10 @@
         <v>135.0136230425967</v>
       </c>
       <c r="H15" t="n">
-        <v>89.73357207162034</v>
+        <v>89.73357207162033</v>
       </c>
       <c r="I15" t="n">
-        <v>9.17878703203381</v>
+        <v>9.178787032033796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.320139308942</v>
+        <v>132.3201393089421</v>
       </c>
       <c r="C16" t="n">
-        <v>119.7349802256325</v>
+        <v>119.7349802256326</v>
       </c>
       <c r="D16" t="n">
         <v>101.1036321452171</v>
       </c>
       <c r="E16" t="n">
-        <v>98.92212177357388</v>
+        <v>98.92212177357393</v>
       </c>
       <c r="F16" t="n">
-        <v>97.90920714993595</v>
+        <v>97.90920714993601</v>
       </c>
       <c r="G16" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H16" t="n">
-        <v>97.34867476819468</v>
+        <v>97.34867476819474</v>
       </c>
       <c r="I16" t="n">
-        <v>49.19742657619177</v>
+        <v>49.19742657619182</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95385637281382</v>
+        <v>41.95385637281386</v>
       </c>
       <c r="S16" t="n">
         <v>142.4639788279847</v>
@@ -1822,16 +1822,16 @@
         <v>238.7006445763407</v>
       </c>
       <c r="V16" t="n">
-        <v>204.6258024508327</v>
+        <v>204.6258024508328</v>
       </c>
       <c r="W16" t="n">
-        <v>239.0111574635957</v>
+        <v>239.0111574635958</v>
       </c>
       <c r="X16" t="n">
         <v>178.1978145160419</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0728124790995</v>
+        <v>171.0728124790996</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.27873032675964</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T17" t="n">
-        <v>156.5219295167269</v>
+        <v>156.5219295167264</v>
       </c>
       <c r="U17" t="n">
         <v>203.4854473668909</v>
@@ -2008,19 +2008,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E19" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357392</v>
       </c>
       <c r="F19" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993599</v>
       </c>
       <c r="G19" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H19" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819473</v>
       </c>
       <c r="I19" t="n">
-        <v>49.19742657619179</v>
+        <v>49.1974265761918</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.27873032675965</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T20" t="n">
         <v>156.5219295167264</v>
@@ -2245,19 +2245,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E22" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357392</v>
       </c>
       <c r="F22" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993599</v>
       </c>
       <c r="G22" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H22" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819473</v>
       </c>
       <c r="I22" t="n">
-        <v>49.19742657619179</v>
+        <v>49.1974265761918</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95385637281384</v>
+        <v>41.95385637281383</v>
       </c>
       <c r="S22" t="n">
         <v>142.4639788279847</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.27873032675964</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T23" t="n">
         <v>156.5219295167264</v>
@@ -2482,19 +2482,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E25" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357392</v>
       </c>
       <c r="F25" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993599</v>
       </c>
       <c r="G25" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H25" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819473</v>
       </c>
       <c r="I25" t="n">
-        <v>49.19742657619179</v>
+        <v>49.1974265761918</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.29786241207252</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>24.19001340892443</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>89.4656972458091</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.97581970098</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5996500344806</v>
       </c>
       <c r="U28" t="n">
         <v>286.212485449336</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>89.4656972458091</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.97581970098</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5996500344806</v>
       </c>
       <c r="U31" t="n">
         <v>286.212485449336</v>
       </c>
       <c r="V31" t="n">
-        <v>251.775627293559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>159.6519540282689</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3193,10 +3193,10 @@
         <v>146.8365024639168</v>
       </c>
       <c r="E34" t="n">
-        <v>144.6549920922736</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>25.95622291840269</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>94.93029689489146</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>87.68672669151351</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>188.1968491466844</v>
       </c>
       <c r="T34" t="n">
         <v>217.820679480185</v>
@@ -3244,16 +3244,16 @@
         <v>284.4335148950404</v>
       </c>
       <c r="V34" t="n">
-        <v>250.3586727695324</v>
+        <v>232.8916067999604</v>
       </c>
       <c r="W34" t="n">
         <v>284.7440277822954</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>223.9306848347416</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.8056827977992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.2220007904853</v>
+        <v>335.2220007904854</v>
       </c>
       <c r="C35" t="n">
         <v>317.7610508980123</v>
@@ -3272,7 +3272,7 @@
         <v>307.1712007476877</v>
       </c>
       <c r="E35" t="n">
-        <v>334.4185291992665</v>
+        <v>334.4185291992666</v>
       </c>
       <c r="F35" t="n">
         <v>359.3642048687162</v>
@@ -3281,7 +3281,7 @@
         <v>363.4363382927601</v>
       </c>
       <c r="H35" t="n">
-        <v>247.3668405471868</v>
+        <v>247.3668405471869</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.27873032675964</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T35" t="n">
         <v>156.5219295167264</v>
@@ -3326,7 +3326,7 @@
         <v>280.2404175971396</v>
       </c>
       <c r="W35" t="n">
-        <v>301.7291278444177</v>
+        <v>301.7291278444178</v>
       </c>
       <c r="X35" t="n">
         <v>322.2192598054738</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.320139308942</v>
+        <v>132.3201393089421</v>
       </c>
       <c r="C37" t="n">
         <v>119.7349802256326</v>
@@ -3430,19 +3430,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E37" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357393</v>
       </c>
       <c r="F37" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993601</v>
       </c>
       <c r="G37" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H37" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819474</v>
       </c>
       <c r="I37" t="n">
-        <v>49.19742657619179</v>
+        <v>49.19742657619182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95385637281383</v>
+        <v>41.95385637281386</v>
       </c>
       <c r="S37" t="n">
         <v>142.4639788279847</v>
@@ -3481,16 +3481,16 @@
         <v>238.7006445763407</v>
       </c>
       <c r="V37" t="n">
-        <v>204.6258024508327</v>
+        <v>204.6258024508328</v>
       </c>
       <c r="W37" t="n">
-        <v>239.0111574635957</v>
+        <v>239.0111574635958</v>
       </c>
       <c r="X37" t="n">
         <v>178.1978145160419</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0728124790995</v>
+        <v>171.0728124790996</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.2220007904853</v>
+        <v>335.2220007904854</v>
       </c>
       <c r="C38" t="n">
         <v>317.7610508980123</v>
@@ -3509,7 +3509,7 @@
         <v>307.1712007476877</v>
       </c>
       <c r="E38" t="n">
-        <v>334.4185291992665</v>
+        <v>334.4185291992666</v>
       </c>
       <c r="F38" t="n">
         <v>359.3642048687162</v>
@@ -3518,7 +3518,7 @@
         <v>363.4363382927601</v>
       </c>
       <c r="H38" t="n">
-        <v>247.3668405471868</v>
+        <v>247.3668405471869</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.27873032675964</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T38" t="n">
         <v>156.5219295167264</v>
@@ -3563,7 +3563,7 @@
         <v>280.2404175971396</v>
       </c>
       <c r="W38" t="n">
-        <v>301.7291278444177</v>
+        <v>301.7291278444178</v>
       </c>
       <c r="X38" t="n">
         <v>322.2192598054738</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.320139308942</v>
+        <v>132.3201393089421</v>
       </c>
       <c r="C40" t="n">
         <v>119.7349802256326</v>
@@ -3667,19 +3667,19 @@
         <v>101.1036321452171</v>
       </c>
       <c r="E40" t="n">
-        <v>98.92212177357391</v>
+        <v>98.92212177357393</v>
       </c>
       <c r="F40" t="n">
-        <v>97.90920714993598</v>
+        <v>97.90920714993601</v>
       </c>
       <c r="G40" t="n">
         <v>118.5258335209569</v>
       </c>
       <c r="H40" t="n">
-        <v>97.34867476819471</v>
+        <v>97.34867476819474</v>
       </c>
       <c r="I40" t="n">
-        <v>49.19742657619179</v>
+        <v>49.19742657619182</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95385637281383</v>
+        <v>41.95385637281386</v>
       </c>
       <c r="S40" t="n">
         <v>142.4639788279847</v>
@@ -3718,16 +3718,16 @@
         <v>238.7006445763407</v>
       </c>
       <c r="V40" t="n">
-        <v>204.6258024508327</v>
+        <v>204.6258024508328</v>
       </c>
       <c r="W40" t="n">
-        <v>239.0111574635957</v>
+        <v>239.0111574635958</v>
       </c>
       <c r="X40" t="n">
         <v>178.1978145160419</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0728124790995</v>
+        <v>171.0728124790996</v>
       </c>
     </row>
     <row r="41">
@@ -3743,10 +3743,10 @@
         <v>317.7610508980123</v>
       </c>
       <c r="D41" t="n">
-        <v>307.1712007476877</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>144.4397450080373</v>
+        <v>149.8818179113073</v>
       </c>
       <c r="F41" t="n">
         <v>359.3642048687162</v>
@@ -3797,16 +3797,16 @@
         <v>203.4854473668909</v>
       </c>
       <c r="V41" t="n">
-        <v>280.2404175971397</v>
+        <v>280.2404175971396</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>301.7291278444178</v>
       </c>
       <c r="X41" t="n">
         <v>322.2192598054738</v>
       </c>
       <c r="Y41" t="n">
-        <v>338.7260977830584</v>
+        <v>338.7260977830583</v>
       </c>
     </row>
     <row r="42">
@@ -3916,7 +3916,7 @@
         <v>97.34867476819474</v>
       </c>
       <c r="I43" t="n">
-        <v>49.19742657619182</v>
+        <v>49.19742657619081</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3983,16 +3983,16 @@
         <v>307.1712007476877</v>
       </c>
       <c r="E44" t="n">
-        <v>334.4185291992666</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.3642048687162</v>
       </c>
       <c r="G44" t="n">
-        <v>231.0926311258294</v>
+        <v>363.4363382927601</v>
       </c>
       <c r="H44" t="n">
-        <v>247.3668405471869</v>
+        <v>90.07745771080633</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.27873032675968</v>
+        <v>62.27873032675967</v>
       </c>
       <c r="T44" t="n">
         <v>156.5219295167264</v>
@@ -4034,7 +4034,7 @@
         <v>203.4854473668909</v>
       </c>
       <c r="V44" t="n">
-        <v>280.2404175971397</v>
+        <v>280.2404175971396</v>
       </c>
       <c r="W44" t="n">
         <v>301.7291278444178</v>
@@ -4043,7 +4043,7 @@
         <v>322.2192598054738</v>
       </c>
       <c r="Y44" t="n">
-        <v>338.7260977830584</v>
+        <v>338.7260977830583</v>
       </c>
     </row>
     <row r="45">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95385637281387</v>
+        <v>41.95385637281386</v>
       </c>
       <c r="S46" t="n">
         <v>142.4639788279847</v>
@@ -4808,13 +4808,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="M8" t="n">
         <v>14.16465422792556</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>20.97193951221988</v>
-      </c>
-      <c r="N8" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="O8" t="n">
         <v>27.50418296684575</v>
@@ -4823,25 +4823,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
         <v>14.44108515774386</v>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
         <v>0.5500836593369149</v>
@@ -4896,37 +4896,37 @@
         <v>14.16465422792556</v>
       </c>
       <c r="O9" t="n">
-        <v>14.16465422792556</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
         <v>0.5500836593369149</v>
@@ -4969,10 +4969,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4984,28 +4984,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W10" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2019.885040747821</v>
+        <v>1652.777628330892</v>
       </c>
       <c r="C11" t="n">
-        <v>1698.91428226498</v>
+        <v>1331.806869848052</v>
       </c>
       <c r="D11" t="n">
-        <v>1388.640342115801</v>
+        <v>1021.532929698872</v>
       </c>
       <c r="E11" t="n">
-        <v>1050.843847975127</v>
+        <v>683.7364355581988</v>
       </c>
       <c r="F11" t="n">
-        <v>687.8497016430907</v>
+        <v>320.7422892261615</v>
       </c>
       <c r="G11" t="n">
         <v>320.7422892261615</v>
@@ -5039,28 +5039,28 @@
         <v>70.87679372395249</v>
       </c>
       <c r="J11" t="n">
-        <v>257.5331679811435</v>
+        <v>424.9388170014967</v>
       </c>
       <c r="K11" t="n">
-        <v>588.0212055651743</v>
+        <v>755.4268545855277</v>
       </c>
       <c r="L11" t="n">
-        <v>1034.92260179743</v>
+        <v>1202.328250817784</v>
       </c>
       <c r="M11" t="n">
-        <v>1744.276076516279</v>
+        <v>1731.261600250651</v>
       </c>
       <c r="N11" t="n">
-        <v>2286.381928904594</v>
+        <v>2273.367452638966</v>
       </c>
       <c r="O11" t="n">
-        <v>2784.941851755286</v>
+        <v>2771.927375489658</v>
       </c>
       <c r="P11" t="n">
-        <v>3175.950210457922</v>
+        <v>3162.935734192295</v>
       </c>
       <c r="Q11" t="n">
-        <v>3421.408457304281</v>
+        <v>3486.467712978533</v>
       </c>
       <c r="R11" t="n">
         <v>3543.839686197624</v>
@@ -5075,16 +5075,16 @@
         <v>3117.288062752799</v>
       </c>
       <c r="V11" t="n">
-        <v>3117.288062752799</v>
+        <v>2834.2169338668</v>
       </c>
       <c r="W11" t="n">
-        <v>2812.511165940256</v>
+        <v>2529.440037054257</v>
       </c>
       <c r="X11" t="n">
-        <v>2487.037166136747</v>
+        <v>2333.533283455684</v>
       </c>
       <c r="Y11" t="n">
-        <v>2358.493122354372</v>
+        <v>1991.385709937443</v>
       </c>
     </row>
     <row r="12">
@@ -5109,34 +5109,34 @@
         <v>307.1656645787514</v>
       </c>
       <c r="G12" t="n">
-        <v>170.7882675660274</v>
+        <v>170.7882675660273</v>
       </c>
       <c r="H12" t="n">
-        <v>80.14829577651189</v>
+        <v>80.14829577651186</v>
       </c>
       <c r="I12" t="n">
         <v>70.87679372395249</v>
       </c>
       <c r="J12" t="n">
-        <v>163.2302045503651</v>
+        <v>163.2302045503652</v>
       </c>
       <c r="K12" t="n">
-        <v>399.2317182124807</v>
+        <v>399.2317182124809</v>
       </c>
       <c r="L12" t="n">
-        <v>762.8874188820721</v>
+        <v>762.8874188820726</v>
       </c>
       <c r="M12" t="n">
-        <v>1206.613337204471</v>
+        <v>1206.613337204472</v>
       </c>
       <c r="N12" t="n">
-        <v>1688.71044350394</v>
+        <v>1676.492005152935</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.337831229079</v>
+        <v>2084.119392878073</v>
       </c>
       <c r="P12" t="n">
-        <v>2404.161680700533</v>
+        <v>2391.943242349527</v>
       </c>
       <c r="Q12" t="n">
         <v>2560.014575677664</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.5150524711271</v>
+        <v>760.5150524711274</v>
       </c>
       <c r="C13" t="n">
-        <v>639.5706280007912</v>
+        <v>639.5706280007914</v>
       </c>
       <c r="D13" t="n">
-        <v>537.4457470460264</v>
+        <v>537.4457470460267</v>
       </c>
       <c r="E13" t="n">
-        <v>437.5244119212044</v>
+        <v>437.5244119212045</v>
       </c>
       <c r="F13" t="n">
-        <v>338.626222880865</v>
+        <v>338.6262228808651</v>
       </c>
       <c r="G13" t="n">
-        <v>218.9031587182824</v>
+        <v>218.9031587182823</v>
       </c>
       <c r="H13" t="n">
-        <v>120.5711640029342</v>
+        <v>120.5711640029341</v>
       </c>
       <c r="I13" t="n">
         <v>70.87679372395249</v>
@@ -5200,10 +5200,10 @@
         <v>162.2056022534222</v>
       </c>
       <c r="K13" t="n">
-        <v>411.8646648276128</v>
+        <v>411.8646648276124</v>
       </c>
       <c r="L13" t="n">
-        <v>773.7146568054595</v>
+        <v>773.7146568054593</v>
       </c>
       <c r="M13" t="n">
         <v>1163.066954988833</v>
@@ -5218,13 +5218,13 @@
         <v>2172.643659075565</v>
       </c>
       <c r="Q13" t="n">
-        <v>2296.306986973285</v>
+        <v>2296.306986973286</v>
       </c>
       <c r="R13" t="n">
-        <v>2253.929354273473</v>
+        <v>2253.929354273474</v>
       </c>
       <c r="S13" t="n">
-        <v>2110.026345356317</v>
+        <v>2110.026345356318</v>
       </c>
       <c r="T13" t="n">
         <v>1936.200275496231</v>
@@ -5242,7 +5242,7 @@
         <v>1066.972579529755</v>
       </c>
       <c r="Y13" t="n">
-        <v>894.1717588437958</v>
+        <v>894.1717588437962</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1681.313341233761</v>
+        <v>1523.210382125956</v>
       </c>
       <c r="C14" t="n">
-        <v>1360.34258275092</v>
+        <v>1202.239623643115</v>
       </c>
       <c r="D14" t="n">
-        <v>1050.068642601741</v>
+        <v>1025.646195783764</v>
       </c>
       <c r="E14" t="n">
-        <v>712.2721484610674</v>
+        <v>687.8497016430908</v>
       </c>
       <c r="F14" t="n">
-        <v>349.2780021290308</v>
+        <v>687.8497016430908</v>
       </c>
       <c r="G14" t="n">
-        <v>320.7422892261614</v>
+        <v>320.7422892261615</v>
       </c>
       <c r="H14" t="n">
         <v>70.87679372395249</v>
@@ -5276,28 +5276,28 @@
         <v>70.87679372395249</v>
       </c>
       <c r="J14" t="n">
-        <v>424.9388170014965</v>
+        <v>257.5331679811436</v>
       </c>
       <c r="K14" t="n">
-        <v>755.4268545855273</v>
+        <v>588.0212055651746</v>
       </c>
       <c r="L14" t="n">
-        <v>1215.342727083412</v>
+        <v>1034.92260179743</v>
       </c>
       <c r="M14" t="n">
-        <v>1744.276076516279</v>
+        <v>1563.855951230297</v>
       </c>
       <c r="N14" t="n">
-        <v>2286.381928904594</v>
+        <v>2351.441184578846</v>
       </c>
       <c r="O14" t="n">
-        <v>2784.941851755286</v>
+        <v>2850.001107429538</v>
       </c>
       <c r="P14" t="n">
-        <v>3175.950210457922</v>
+        <v>3241.009466132175</v>
       </c>
       <c r="Q14" t="n">
-        <v>3421.408457304281</v>
+        <v>3486.467712978533</v>
       </c>
       <c r="R14" t="n">
         <v>3543.839686197624</v>
@@ -5306,22 +5306,22 @@
         <v>3480.931877786756</v>
       </c>
       <c r="T14" t="n">
-        <v>3480.931877786756</v>
+        <v>3322.828918678952</v>
       </c>
       <c r="U14" t="n">
-        <v>3275.391021860604</v>
+        <v>3117.288062752799</v>
       </c>
       <c r="V14" t="n">
-        <v>2992.319892974604</v>
+        <v>2834.2169338668</v>
       </c>
       <c r="W14" t="n">
-        <v>2687.542996162061</v>
+        <v>2529.440037054256</v>
       </c>
       <c r="X14" t="n">
-        <v>2362.068996358552</v>
+        <v>2203.966037250747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2019.921422840312</v>
+        <v>1861.818463732507</v>
       </c>
     </row>
     <row r="15">
@@ -5346,19 +5346,19 @@
         <v>307.1656645787514</v>
       </c>
       <c r="G15" t="n">
-        <v>170.7882675660274</v>
+        <v>170.7882675660273</v>
       </c>
       <c r="H15" t="n">
-        <v>80.14829577651189</v>
+        <v>80.14829577651187</v>
       </c>
       <c r="I15" t="n">
         <v>70.87679372395249</v>
       </c>
       <c r="J15" t="n">
-        <v>175.448642901372</v>
+        <v>163.2302045503651</v>
       </c>
       <c r="K15" t="n">
-        <v>411.4501565634876</v>
+        <v>399.2317182124808</v>
       </c>
       <c r="L15" t="n">
         <v>775.105857233079</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.5150524711272</v>
+        <v>760.5150524711274</v>
       </c>
       <c r="C16" t="n">
-        <v>639.5706280007913</v>
+        <v>639.5706280007914</v>
       </c>
       <c r="D16" t="n">
-        <v>537.4457470460266</v>
+        <v>537.4457470460267</v>
       </c>
       <c r="E16" t="n">
-        <v>437.5244119212044</v>
+        <v>437.5244119212045</v>
       </c>
       <c r="F16" t="n">
         <v>338.6262228808651</v>
@@ -5437,16 +5437,16 @@
         <v>162.2056022534222</v>
       </c>
       <c r="K16" t="n">
-        <v>411.8646648276125</v>
+        <v>411.8646648276126</v>
       </c>
       <c r="L16" t="n">
         <v>773.7146568054593</v>
       </c>
       <c r="M16" t="n">
-        <v>1163.066954988832</v>
+        <v>1163.066954988833</v>
       </c>
       <c r="N16" t="n">
-        <v>1549.71437031639</v>
+        <v>1549.714370316391</v>
       </c>
       <c r="O16" t="n">
         <v>1894.420239708893</v>
@@ -5455,13 +5455,13 @@
         <v>2172.643659075565</v>
       </c>
       <c r="Q16" t="n">
-        <v>2296.306986973285</v>
+        <v>2296.306986973286</v>
       </c>
       <c r="R16" t="n">
-        <v>2253.929354273473</v>
+        <v>2253.929354273474</v>
       </c>
       <c r="S16" t="n">
-        <v>2110.026345356317</v>
+        <v>2110.026345356318</v>
       </c>
       <c r="T16" t="n">
         <v>1936.200275496231</v>
@@ -5479,7 +5479,7 @@
         <v>1066.972579529755</v>
       </c>
       <c r="Y16" t="n">
-        <v>894.1717588437959</v>
+        <v>894.1717588437962</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2030.021258270716</v>
+        <v>2030.021258270718</v>
       </c>
       <c r="C17" t="n">
-        <v>1709.050499787875</v>
+        <v>1709.050499787877</v>
       </c>
       <c r="D17" t="n">
-        <v>1398.776559638696</v>
+        <v>1398.776559638698</v>
       </c>
       <c r="E17" t="n">
-        <v>1060.980065498022</v>
+        <v>1060.980065498024</v>
       </c>
       <c r="F17" t="n">
-        <v>697.9859191659858</v>
+        <v>697.9859191659875</v>
       </c>
       <c r="G17" t="n">
         <v>330.8785067490567</v>
       </c>
       <c r="H17" t="n">
-        <v>81.01301124684771</v>
+        <v>81.01301124684773</v>
       </c>
       <c r="I17" t="n">
-        <v>81.01301124684771</v>
+        <v>81.01301124684773</v>
       </c>
       <c r="J17" t="n">
-        <v>267.6693855040388</v>
+        <v>435.0750345243919</v>
       </c>
       <c r="K17" t="n">
-        <v>598.1574230880697</v>
+        <v>1086.467030553876</v>
       </c>
       <c r="L17" t="n">
-        <v>1045.058819320325</v>
+        <v>1533.368426786131</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.992168753192</v>
+        <v>2316.146208335292</v>
       </c>
       <c r="N17" t="n">
-        <v>2549.071476309372</v>
+        <v>2858.252060723607</v>
       </c>
       <c r="O17" t="n">
-        <v>3356.811983574299</v>
+        <v>3356.8119835743</v>
       </c>
       <c r="P17" t="n">
         <v>3747.820342276936</v>
       </c>
       <c r="Q17" t="n">
-        <v>3993.278589123294</v>
+        <v>3993.278589123295</v>
       </c>
       <c r="R17" t="n">
-        <v>4050.650562342385</v>
+        <v>4050.650562342386</v>
       </c>
       <c r="S17" t="n">
-        <v>3987.742753931517</v>
+        <v>3987.742753931518</v>
       </c>
       <c r="T17" t="n">
-        <v>3829.639794823712</v>
+        <v>3829.639794823714</v>
       </c>
       <c r="U17" t="n">
-        <v>3624.098938897559</v>
+        <v>3624.098938897561</v>
       </c>
       <c r="V17" t="n">
-        <v>3341.027810011559</v>
+        <v>3341.027810011562</v>
       </c>
       <c r="W17" t="n">
-        <v>3036.250913199016</v>
+        <v>3036.250913199018</v>
       </c>
       <c r="X17" t="n">
-        <v>2710.776913395507</v>
+        <v>2710.776913395509</v>
       </c>
       <c r="Y17" t="n">
-        <v>2368.629339877266</v>
+        <v>2368.629339877269</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>180.9244850889226</v>
       </c>
       <c r="H18" t="n">
-        <v>90.2845132994071</v>
+        <v>90.28451329940711</v>
       </c>
       <c r="I18" t="n">
-        <v>81.01301124684771</v>
+        <v>81.01301124684773</v>
       </c>
       <c r="J18" t="n">
         <v>185.5848604242673</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>770.6512699940224</v>
+        <v>770.6512699940226</v>
       </c>
       <c r="C19" t="n">
-        <v>649.7068455236865</v>
+        <v>649.7068455236866</v>
       </c>
       <c r="D19" t="n">
-        <v>547.5819645689218</v>
+        <v>547.5819645689219</v>
       </c>
       <c r="E19" t="n">
-        <v>447.6606294440996</v>
+        <v>447.6606294440998</v>
       </c>
       <c r="F19" t="n">
-        <v>348.7624404037603</v>
+        <v>348.7624404037604</v>
       </c>
       <c r="G19" t="n">
-        <v>229.0393762411775</v>
+        <v>229.0393762411776</v>
       </c>
       <c r="H19" t="n">
-        <v>130.7073815258293</v>
+        <v>130.7073815258294</v>
       </c>
       <c r="I19" t="n">
-        <v>81.01301124684771</v>
+        <v>81.01301124684773</v>
       </c>
       <c r="J19" t="n">
         <v>172.3418197763174</v>
@@ -5704,19 +5704,19 @@
         <v>1946.336493019126</v>
       </c>
       <c r="U19" t="n">
-        <v>1705.224730820802</v>
+        <v>1705.224730820803</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.532001072486</v>
+        <v>1498.532001072487</v>
       </c>
       <c r="W19" t="n">
         <v>1257.106589493097</v>
       </c>
       <c r="X19" t="n">
-        <v>1077.10879705265</v>
+        <v>1077.108797052651</v>
       </c>
       <c r="Y19" t="n">
-        <v>904.3079763666912</v>
+        <v>904.3079763666914</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2030.021258270717</v>
+        <v>2030.021258270716</v>
       </c>
       <c r="C20" t="n">
         <v>1709.050499787876</v>
       </c>
       <c r="D20" t="n">
-        <v>1398.776559638697</v>
+        <v>1398.776559638696</v>
       </c>
       <c r="E20" t="n">
-        <v>1060.980065498024</v>
+        <v>1060.980065498023</v>
       </c>
       <c r="F20" t="n">
-        <v>697.9859191659871</v>
+        <v>697.985919165986</v>
       </c>
       <c r="G20" t="n">
         <v>330.8785067490567</v>
       </c>
       <c r="H20" t="n">
-        <v>81.01301124684771</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="I20" t="n">
-        <v>81.01301124684771</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="J20" t="n">
-        <v>435.0750345243919</v>
+        <v>267.6693855040388</v>
       </c>
       <c r="K20" t="n">
-        <v>1086.467030553876</v>
+        <v>644.7385621302831</v>
       </c>
       <c r="L20" t="n">
-        <v>1533.368426786131</v>
+        <v>1091.639958362539</v>
       </c>
       <c r="M20" t="n">
-        <v>2062.301776218998</v>
+        <v>1620.573307795406</v>
       </c>
       <c r="N20" t="n">
-        <v>2604.407628607314</v>
+        <v>2162.679160183721</v>
       </c>
       <c r="O20" t="n">
-        <v>3102.967551458006</v>
+        <v>3038.231262484531</v>
       </c>
       <c r="P20" t="n">
-        <v>3747.820342276936</v>
+        <v>3747.820342276935</v>
       </c>
       <c r="Q20" t="n">
-        <v>3993.278589123294</v>
+        <v>3993.278589123293</v>
       </c>
       <c r="R20" t="n">
         <v>4050.650562342385</v>
@@ -5780,13 +5780,13 @@
         <v>3987.742753931517</v>
       </c>
       <c r="T20" t="n">
-        <v>3829.639794823713</v>
+        <v>3829.639794823712</v>
       </c>
       <c r="U20" t="n">
         <v>3624.09893889756</v>
       </c>
       <c r="V20" t="n">
-        <v>3341.027810011561</v>
+        <v>3341.02781001156</v>
       </c>
       <c r="W20" t="n">
         <v>3036.250913199017</v>
@@ -5795,7 +5795,7 @@
         <v>2710.776913395508</v>
       </c>
       <c r="Y20" t="n">
-        <v>2368.629339877268</v>
+        <v>2368.629339877267</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>180.9244850889226</v>
       </c>
       <c r="H21" t="n">
-        <v>90.2845132994071</v>
+        <v>90.28451329940708</v>
       </c>
       <c r="I21" t="n">
-        <v>81.01301124684771</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="J21" t="n">
         <v>173.3664220732603</v>
@@ -5896,7 +5896,7 @@
         <v>447.6606294440996</v>
       </c>
       <c r="F22" t="n">
-        <v>348.7624404037602</v>
+        <v>348.7624404037603</v>
       </c>
       <c r="G22" t="n">
         <v>229.0393762411775</v>
@@ -5905,7 +5905,7 @@
         <v>130.7073815258293</v>
       </c>
       <c r="I22" t="n">
-        <v>81.01301124684771</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="J22" t="n">
         <v>172.3418197763174</v>
@@ -5914,16 +5914,16 @@
         <v>422.0008823505078</v>
       </c>
       <c r="L22" t="n">
-        <v>783.8508743283545</v>
+        <v>783.8508743283546</v>
       </c>
       <c r="M22" t="n">
-        <v>1173.203172511727</v>
+        <v>1173.203172511728</v>
       </c>
       <c r="N22" t="n">
         <v>1559.850587839286</v>
       </c>
       <c r="O22" t="n">
-        <v>1904.556457231789</v>
+        <v>1904.556457231788</v>
       </c>
       <c r="P22" t="n">
         <v>2182.779876598461</v>
@@ -5938,13 +5938,13 @@
         <v>2120.162562879213</v>
       </c>
       <c r="T22" t="n">
-        <v>1946.336493019127</v>
+        <v>1946.336493019126</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.224730820803</v>
+        <v>1705.224730820802</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.532001072487</v>
+        <v>1498.532001072486</v>
       </c>
       <c r="W22" t="n">
         <v>1257.106589493097</v>
@@ -5966,16 +5966,16 @@
         <v>2030.021258270717</v>
       </c>
       <c r="C23" t="n">
-        <v>1709.050499787877</v>
+        <v>1709.050499787876</v>
       </c>
       <c r="D23" t="n">
         <v>1398.776559638697</v>
       </c>
       <c r="E23" t="n">
-        <v>1060.980065498024</v>
+        <v>1060.980065498023</v>
       </c>
       <c r="F23" t="n">
-        <v>697.9859191659871</v>
+        <v>697.9859191659867</v>
       </c>
       <c r="G23" t="n">
         <v>330.8785067490567</v>
@@ -5990,19 +5990,19 @@
         <v>267.6693855040388</v>
       </c>
       <c r="K23" t="n">
-        <v>644.738562130284</v>
+        <v>598.1574230880697</v>
       </c>
       <c r="L23" t="n">
-        <v>1091.63995836254</v>
+        <v>1045.058819320325</v>
       </c>
       <c r="M23" t="n">
-        <v>1620.573307795406</v>
+        <v>1573.992168753192</v>
       </c>
       <c r="N23" t="n">
-        <v>2162.679160183722</v>
+        <v>2481.259881273489</v>
       </c>
       <c r="O23" t="n">
-        <v>3038.231262484532</v>
+        <v>3356.811983574299</v>
       </c>
       <c r="P23" t="n">
         <v>3747.820342276936</v>
@@ -6081,10 +6081,10 @@
         <v>1686.628222675829</v>
       </c>
       <c r="O24" t="n">
-        <v>2106.474048751974</v>
+        <v>2094.255610400968</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.297898223428</v>
+        <v>2402.079459872421</v>
       </c>
       <c r="Q24" t="n">
         <v>2570.15079320056</v>
@@ -6151,7 +6151,7 @@
         <v>422.0008823505078</v>
       </c>
       <c r="L25" t="n">
-        <v>783.8508743283546</v>
+        <v>783.8508743283545</v>
       </c>
       <c r="M25" t="n">
         <v>1173.203172511728</v>
@@ -6166,13 +6166,13 @@
         <v>2182.77987659846</v>
       </c>
       <c r="Q25" t="n">
-        <v>2306.443204496181</v>
+        <v>2306.44320449618</v>
       </c>
       <c r="R25" t="n">
         <v>2264.065571796369</v>
       </c>
       <c r="S25" t="n">
-        <v>2120.162562879213</v>
+        <v>2120.162562879212</v>
       </c>
       <c r="T25" t="n">
         <v>1946.336493019126</v>
@@ -6184,7 +6184,7 @@
         <v>1498.532001072486</v>
       </c>
       <c r="W25" t="n">
-        <v>1257.106589493097</v>
+        <v>1257.106589493096</v>
       </c>
       <c r="X25" t="n">
         <v>1077.10879705265</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2375.58889234987</v>
+        <v>2375.588892349869</v>
       </c>
       <c r="C26" t="n">
-        <v>2006.626375409458</v>
+        <v>2006.626375409457</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.360676802708</v>
+        <v>1648.360676802707</v>
       </c>
       <c r="E26" t="n">
-        <v>1262.572424204464</v>
+        <v>1262.572424204462</v>
       </c>
       <c r="F26" t="n">
-        <v>851.5865194148569</v>
+        <v>851.5865194148548</v>
       </c>
       <c r="G26" t="n">
         <v>436.4873485403555</v>
@@ -6221,55 +6221,55 @@
         <v>138.6300945805756</v>
       </c>
       <c r="I26" t="n">
-        <v>95.60304528164214</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="J26" t="n">
-        <v>289.874812672657</v>
+        <v>282.2594195388332</v>
       </c>
       <c r="K26" t="n">
-        <v>941.2668087021409</v>
+        <v>612.7474571228641</v>
       </c>
       <c r="L26" t="n">
-        <v>1388.168204934396</v>
+        <v>1059.64885335512</v>
       </c>
       <c r="M26" t="n">
-        <v>1917.101554367263</v>
+        <v>2033.600600945891</v>
       </c>
       <c r="N26" t="n">
-        <v>2892.180861923443</v>
+        <v>2681.989021170136</v>
       </c>
       <c r="O26" t="n">
-        <v>3767.732964224253</v>
+        <v>3557.541123470946</v>
       </c>
       <c r="P26" t="n">
-        <v>4477.322044016657</v>
+        <v>4267.13020326335</v>
       </c>
       <c r="Q26" t="n">
-        <v>4722.780290863016</v>
+        <v>4722.780290863015</v>
       </c>
       <c r="R26" t="n">
-        <v>4780.152264082107</v>
+        <v>4780.152264082106</v>
       </c>
       <c r="S26" t="n">
-        <v>4669.252697213667</v>
+        <v>4669.252697213666</v>
       </c>
       <c r="T26" t="n">
-        <v>4463.157979648292</v>
+        <v>4463.15797964829</v>
       </c>
       <c r="U26" t="n">
-        <v>4209.625365264568</v>
+        <v>4209.625365264567</v>
       </c>
       <c r="V26" t="n">
         <v>3878.562477920997</v>
       </c>
       <c r="W26" t="n">
-        <v>3525.793822650883</v>
+        <v>3525.793822650882</v>
       </c>
       <c r="X26" t="n">
-        <v>3152.328064389803</v>
+        <v>3152.328064389802</v>
       </c>
       <c r="Y26" t="n">
-        <v>2762.188732413992</v>
+        <v>2762.188732413991</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>104.8745473342015</v>
       </c>
       <c r="I27" t="n">
-        <v>95.60304528164214</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9564561080548</v>
+        <v>187.9564561080547</v>
       </c>
       <c r="K27" t="n">
-        <v>423.9579697701705</v>
+        <v>423.9579697701704</v>
       </c>
       <c r="L27" t="n">
-        <v>799.8321087907689</v>
+        <v>787.6136704397619</v>
       </c>
       <c r="M27" t="n">
-        <v>1243.558027113168</v>
+        <v>1231.339588762161</v>
       </c>
       <c r="N27" t="n">
-        <v>1713.43669506163</v>
+        <v>1701.218256710624</v>
       </c>
       <c r="O27" t="n">
-        <v>2121.064082786769</v>
+        <v>2108.845644435762</v>
       </c>
       <c r="P27" t="n">
-        <v>2428.887932258222</v>
+        <v>2416.669493907216</v>
       </c>
       <c r="Q27" t="n">
         <v>2584.740827235354</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>638.2088545108339</v>
+        <v>386.659713924813</v>
       </c>
       <c r="C28" t="n">
-        <v>638.2088545108339</v>
+        <v>217.7235309969061</v>
       </c>
       <c r="D28" t="n">
-        <v>488.0922150984982</v>
+        <v>217.7235309969061</v>
       </c>
       <c r="E28" t="n">
-        <v>340.1791215161051</v>
+        <v>217.7235309969061</v>
       </c>
       <c r="F28" t="n">
         <v>193.2891740181947</v>
@@ -6379,19 +6379,19 @@
         <v>193.2891740181947</v>
       </c>
       <c r="I28" t="n">
-        <v>95.60304528164214</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="J28" t="n">
         <v>139.8951313468465</v>
       </c>
       <c r="K28" t="n">
-        <v>342.5174714567717</v>
+        <v>342.5174714567715</v>
       </c>
       <c r="L28" t="n">
-        <v>657.3307409703532</v>
+        <v>657.3307409703531</v>
       </c>
       <c r="M28" t="n">
-        <v>999.6463166894611</v>
+        <v>999.6463166894609</v>
       </c>
       <c r="N28" t="n">
         <v>1339.257009552754</v>
@@ -6403,31 +6403,31 @@
         <v>1868.112853383398</v>
       </c>
       <c r="Q28" t="n">
-        <v>1944.739458816854</v>
+        <v>1944.739458816853</v>
       </c>
       <c r="R28" t="n">
-        <v>1944.739458816854</v>
+        <v>1854.37006765947</v>
       </c>
       <c r="S28" t="n">
-        <v>1944.739458816854</v>
+        <v>1662.475300284743</v>
       </c>
       <c r="T28" t="n">
-        <v>1944.739458816854</v>
+        <v>1440.657471967085</v>
       </c>
       <c r="U28" t="n">
-        <v>1655.635938160959</v>
+        <v>1151.553951311191</v>
       </c>
       <c r="V28" t="n">
-        <v>1400.951449955072</v>
+        <v>896.8694631053037</v>
       </c>
       <c r="W28" t="n">
-        <v>1111.534279918111</v>
+        <v>607.4522930683431</v>
       </c>
       <c r="X28" t="n">
-        <v>883.5447290200937</v>
+        <v>607.4522930683431</v>
       </c>
       <c r="Y28" t="n">
-        <v>662.7521498765635</v>
+        <v>386.659713924813</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2375.58889234987</v>
+        <v>2375.588892349869</v>
       </c>
       <c r="C29" t="n">
-        <v>2006.626375409458</v>
+        <v>2006.626375409457</v>
       </c>
       <c r="D29" t="n">
-        <v>1648.360676802708</v>
+        <v>1648.360676802707</v>
       </c>
       <c r="E29" t="n">
-        <v>1262.572424204463</v>
+        <v>1262.572424204462</v>
       </c>
       <c r="F29" t="n">
-        <v>851.586519414856</v>
+        <v>851.5865194148548</v>
       </c>
       <c r="G29" t="n">
-        <v>436.487348540355</v>
+        <v>436.4873485403555</v>
       </c>
       <c r="H29" t="n">
         <v>138.6300945805756</v>
@@ -6461,25 +6461,25 @@
         <v>95.60304528164212</v>
       </c>
       <c r="J29" t="n">
-        <v>449.6650685591862</v>
+        <v>282.2594195388332</v>
       </c>
       <c r="K29" t="n">
-        <v>1101.05706458867</v>
+        <v>612.7474571228641</v>
       </c>
       <c r="L29" t="n">
-        <v>1547.958460820926</v>
+        <v>1112.917108506838</v>
       </c>
       <c r="M29" t="n">
-        <v>2076.891810253793</v>
+        <v>1641.850457939704</v>
       </c>
       <c r="N29" t="n">
-        <v>3051.971117809972</v>
+        <v>2616.929765495884</v>
       </c>
       <c r="O29" t="n">
-        <v>3927.523220110782</v>
+        <v>3492.481867796694</v>
       </c>
       <c r="P29" t="n">
-        <v>4412.262788342404</v>
+        <v>4202.070947589098</v>
       </c>
       <c r="Q29" t="n">
         <v>4657.721035188762</v>
@@ -6488,25 +6488,25 @@
         <v>4780.152264082106</v>
       </c>
       <c r="S29" t="n">
-        <v>4669.252697213667</v>
+        <v>4669.252697213666</v>
       </c>
       <c r="T29" t="n">
-        <v>4463.157979648291</v>
+        <v>4463.15797964829</v>
       </c>
       <c r="U29" t="n">
-        <v>4209.625365264568</v>
+        <v>4209.625365264567</v>
       </c>
       <c r="V29" t="n">
         <v>3878.562477920997</v>
       </c>
       <c r="W29" t="n">
-        <v>3525.793822650883</v>
+        <v>3525.793822650882</v>
       </c>
       <c r="X29" t="n">
-        <v>3152.328064389803</v>
+        <v>3152.328064389802</v>
       </c>
       <c r="Y29" t="n">
-        <v>2762.188732413992</v>
+        <v>2762.188732413991</v>
       </c>
     </row>
     <row r="30">
@@ -6558,10 +6558,10 @@
         <v>2108.845644435762</v>
       </c>
       <c r="P30" t="n">
-        <v>2416.669493907216</v>
+        <v>2428.887932258222</v>
       </c>
       <c r="Q30" t="n">
-        <v>2572.522388884347</v>
+        <v>2584.740827235354</v>
       </c>
       <c r="R30" t="n">
         <v>2584.740827235354</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4589087021882</v>
+        <v>264.539228209549</v>
       </c>
       <c r="C31" t="n">
-        <v>540.5227257742813</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="D31" t="n">
-        <v>390.4060863619457</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4929927795525</v>
+        <v>95.60304528164212</v>
       </c>
       <c r="F31" t="n">
         <v>95.60304528164212</v>
@@ -6622,13 +6622,13 @@
         <v>139.8951313468465</v>
       </c>
       <c r="K31" t="n">
-        <v>342.5174714567715</v>
+        <v>342.5174714567718</v>
       </c>
       <c r="L31" t="n">
-        <v>657.330740970353</v>
+        <v>657.3307409703532</v>
       </c>
       <c r="M31" t="n">
-        <v>999.6463166894611</v>
+        <v>999.6463166894612</v>
       </c>
       <c r="N31" t="n">
         <v>1339.257009552754</v>
@@ -6643,28 +6643,28 @@
         <v>1944.739458816853</v>
       </c>
       <c r="R31" t="n">
-        <v>1944.739458816853</v>
+        <v>1854.37006765947</v>
       </c>
       <c r="S31" t="n">
-        <v>1944.739458816853</v>
+        <v>1662.475300284743</v>
       </c>
       <c r="T31" t="n">
-        <v>1944.739458816853</v>
+        <v>1440.657471967085</v>
       </c>
       <c r="U31" t="n">
-        <v>1655.635938160958</v>
+        <v>1151.553951311191</v>
       </c>
       <c r="V31" t="n">
-        <v>1401.317122712919</v>
+        <v>896.8694631053037</v>
       </c>
       <c r="W31" t="n">
-        <v>1111.899952675958</v>
+        <v>607.4522930683431</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.899952675958</v>
+        <v>446.1876930397888</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.1073735324279</v>
+        <v>446.1876930397888</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1254.83458072979</v>
       </c>
       <c r="F32" t="n">
-        <v>845.645615894016</v>
+        <v>845.6456158940166</v>
       </c>
       <c r="G32" t="n">
-        <v>432.3433849733506</v>
+        <v>432.3433849733501</v>
       </c>
       <c r="H32" t="n">
         <v>136.2830709674048</v>
@@ -6704,31 +6704,31 @@
         <v>933.1013319089802</v>
       </c>
       <c r="L32" t="n">
-        <v>1679.244743057317</v>
+        <v>1380.002728141236</v>
       </c>
       <c r="M32" t="n">
-        <v>2208.178092490184</v>
+        <v>1991.338454422976</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.257400046363</v>
+        <v>2966.417761979156</v>
       </c>
       <c r="O32" t="n">
-        <v>4058.809502347173</v>
+        <v>3464.977684829848</v>
       </c>
       <c r="P32" t="n">
-        <v>4449.81786104981</v>
+        <v>4174.566764622252</v>
       </c>
       <c r="Q32" t="n">
-        <v>4695.276107896168</v>
+        <v>4630.216852221916</v>
       </c>
       <c r="R32" t="n">
         <v>4752.64808111526</v>
       </c>
       <c r="S32" t="n">
-        <v>4643.545454200654</v>
+        <v>4643.545454200655</v>
       </c>
       <c r="T32" t="n">
-        <v>4439.247676589112</v>
+        <v>4439.247676589113</v>
       </c>
       <c r="U32" t="n">
         <v>4187.512002159223</v>
@@ -6740,10 +6740,10 @@
         <v>3507.274339453206</v>
       </c>
       <c r="X32" t="n">
-        <v>3135.60552114596</v>
+        <v>3135.605521145961</v>
       </c>
       <c r="Y32" t="n">
-        <v>2747.263129123982</v>
+        <v>2747.263129123983</v>
       </c>
     </row>
     <row r="33">
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>511.5964104803709</v>
+        <v>243.372661080807</v>
       </c>
       <c r="C34" t="n">
-        <v>511.5964104803709</v>
+        <v>243.372661080807</v>
       </c>
       <c r="D34" t="n">
-        <v>363.2767110218691</v>
+        <v>95.05296162230519</v>
       </c>
       <c r="E34" t="n">
-        <v>217.1605573933099</v>
+        <v>95.05296162230519</v>
       </c>
       <c r="F34" t="n">
-        <v>190.9421504050239</v>
+        <v>95.05296162230519</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9421504050239</v>
+        <v>95.05296162230519</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9421504050239</v>
+        <v>95.05296162230519</v>
       </c>
       <c r="I34" t="n">
         <v>95.05296162230519</v>
       </c>
       <c r="J34" t="n">
-        <v>141.1062285362621</v>
+        <v>141.1062285362622</v>
       </c>
       <c r="K34" t="n">
-        <v>345.4897494949397</v>
+        <v>345.4897494949401</v>
       </c>
       <c r="L34" t="n">
-        <v>662.0641998572738</v>
+        <v>662.0641998572742</v>
       </c>
       <c r="M34" t="n">
-        <v>1006.140956425134</v>
+        <v>1006.140956425135</v>
       </c>
       <c r="N34" t="n">
         <v>1347.51283013718</v>
@@ -6874,34 +6874,34 @@
         <v>1646.94315791417</v>
       </c>
       <c r="P34" t="n">
-        <v>1879.891035665329</v>
+        <v>1879.89103566533</v>
       </c>
       <c r="Q34" t="n">
         <v>1958.278821947537</v>
       </c>
       <c r="R34" t="n">
-        <v>1958.278821947537</v>
+        <v>1869.706370743988</v>
       </c>
       <c r="S34" t="n">
-        <v>1958.278821947537</v>
+        <v>1679.608543323095</v>
       </c>
       <c r="T34" t="n">
-        <v>1738.257933583714</v>
+        <v>1459.587654959272</v>
       </c>
       <c r="U34" t="n">
-        <v>1450.951352881653</v>
+        <v>1172.281074257211</v>
       </c>
       <c r="V34" t="n">
-        <v>1198.0638046296</v>
+        <v>937.037026984523</v>
       </c>
       <c r="W34" t="n">
-        <v>910.4435745464729</v>
+        <v>649.4167969013963</v>
       </c>
       <c r="X34" t="n">
-        <v>910.4435745464729</v>
+        <v>423.2241859572127</v>
       </c>
       <c r="Y34" t="n">
-        <v>691.4479353567767</v>
+        <v>423.2241859572127</v>
       </c>
     </row>
     <row r="35">
@@ -6914,58 +6914,58 @@
         <v>2030.021258270717</v>
       </c>
       <c r="C35" t="n">
-        <v>1709.050499787877</v>
+        <v>1709.050499787876</v>
       </c>
       <c r="D35" t="n">
-        <v>1398.776559638697</v>
+        <v>1398.776559638696</v>
       </c>
       <c r="E35" t="n">
-        <v>1060.980065498024</v>
+        <v>1060.980065498023</v>
       </c>
       <c r="F35" t="n">
-        <v>697.9859191659875</v>
+        <v>697.9859191659866</v>
       </c>
       <c r="G35" t="n">
         <v>330.8785067490567</v>
       </c>
       <c r="H35" t="n">
-        <v>81.01301124684773</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="I35" t="n">
-        <v>81.01301124684773</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="J35" t="n">
         <v>267.6693855040388</v>
       </c>
       <c r="K35" t="n">
-        <v>598.1574230880697</v>
+        <v>919.0613815335228</v>
       </c>
       <c r="L35" t="n">
-        <v>1045.058819320325</v>
+        <v>1365.962777765778</v>
       </c>
       <c r="M35" t="n">
-        <v>1939.154028885174</v>
+        <v>2316.146208335291</v>
       </c>
       <c r="N35" t="n">
-        <v>2481.25988127349</v>
+        <v>2858.252060723606</v>
       </c>
       <c r="O35" t="n">
-        <v>3356.8119835743</v>
+        <v>3356.811983574298</v>
       </c>
       <c r="P35" t="n">
-        <v>3747.820342276936</v>
+        <v>3747.820342276935</v>
       </c>
       <c r="Q35" t="n">
-        <v>3993.278589123295</v>
+        <v>3993.278589123293</v>
       </c>
       <c r="R35" t="n">
-        <v>4050.650562342386</v>
+        <v>4050.650562342385</v>
       </c>
       <c r="S35" t="n">
-        <v>3987.742753931518</v>
+        <v>3987.742753931517</v>
       </c>
       <c r="T35" t="n">
-        <v>3829.639794823713</v>
+        <v>3829.639794823712</v>
       </c>
       <c r="U35" t="n">
         <v>3624.09893889756</v>
@@ -6974,10 +6974,10 @@
         <v>3341.027810011561</v>
       </c>
       <c r="W35" t="n">
-        <v>3036.250913199018</v>
+        <v>3036.250913199017</v>
       </c>
       <c r="X35" t="n">
-        <v>2710.776913395509</v>
+        <v>2710.776913395508</v>
       </c>
       <c r="Y35" t="n">
         <v>2368.629339877268</v>
@@ -7008,13 +7008,13 @@
         <v>180.9244850889226</v>
       </c>
       <c r="H36" t="n">
-        <v>90.28451329940711</v>
+        <v>90.28451329940708</v>
       </c>
       <c r="I36" t="n">
-        <v>81.01301124684773</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="J36" t="n">
-        <v>173.3664220732604</v>
+        <v>173.3664220732603</v>
       </c>
       <c r="K36" t="n">
         <v>409.367935735376</v>
@@ -7029,10 +7029,10 @@
         <v>1686.628222675829</v>
       </c>
       <c r="O36" t="n">
-        <v>2106.474048751974</v>
+        <v>2094.255610400968</v>
       </c>
       <c r="P36" t="n">
-        <v>2414.297898223428</v>
+        <v>2402.079459872421</v>
       </c>
       <c r="Q36" t="n">
         <v>2570.15079320056</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>770.6512699940224</v>
+        <v>770.6512699940226</v>
       </c>
       <c r="C37" t="n">
-        <v>649.7068455236865</v>
+        <v>649.7068455236866</v>
       </c>
       <c r="D37" t="n">
-        <v>547.5819645689218</v>
+        <v>547.5819645689219</v>
       </c>
       <c r="E37" t="n">
-        <v>447.6606294440996</v>
+        <v>447.6606294440997</v>
       </c>
       <c r="F37" t="n">
         <v>348.7624404037603</v>
       </c>
       <c r="G37" t="n">
-        <v>229.0393762411775</v>
+        <v>229.0393762411776</v>
       </c>
       <c r="H37" t="n">
         <v>130.7073815258293</v>
       </c>
       <c r="I37" t="n">
-        <v>81.01301124684773</v>
+        <v>81.0130112468477</v>
       </c>
       <c r="J37" t="n">
-        <v>172.3418197763174</v>
+        <v>172.3418197763173</v>
       </c>
       <c r="K37" t="n">
-        <v>422.0008823505078</v>
+        <v>422.0008823505077</v>
       </c>
       <c r="L37" t="n">
         <v>783.8508743283544</v>
@@ -7126,19 +7126,19 @@
         <v>1946.336493019126</v>
       </c>
       <c r="U37" t="n">
-        <v>1705.224730820802</v>
+        <v>1705.224730820803</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.532001072486</v>
+        <v>1498.532001072487</v>
       </c>
       <c r="W37" t="n">
         <v>1257.106589493097</v>
       </c>
       <c r="X37" t="n">
-        <v>1077.10879705265</v>
+        <v>1077.108797052651</v>
       </c>
       <c r="Y37" t="n">
-        <v>904.3079763666912</v>
+        <v>904.3079763666914</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2030.021258270716</v>
       </c>
       <c r="C38" t="n">
-        <v>1709.050499787876</v>
+        <v>1709.050499787875</v>
       </c>
       <c r="D38" t="n">
         <v>1398.776559638696</v>
       </c>
       <c r="E38" t="n">
-        <v>1060.980065498023</v>
+        <v>1060.980065498022</v>
       </c>
       <c r="F38" t="n">
-        <v>697.9859191659866</v>
+        <v>697.9859191659858</v>
       </c>
       <c r="G38" t="n">
         <v>330.8785067490567</v>
@@ -7175,34 +7175,34 @@
         <v>267.6693855040388</v>
       </c>
       <c r="K38" t="n">
-        <v>842.2787518280522</v>
+        <v>919.0613815335228</v>
       </c>
       <c r="L38" t="n">
-        <v>1289.180148060308</v>
+        <v>1365.962777765778</v>
       </c>
       <c r="M38" t="n">
-        <v>1818.113497493175</v>
+        <v>2316.146208335291</v>
       </c>
       <c r="N38" t="n">
-        <v>2793.192805049354</v>
+        <v>2858.252060723606</v>
       </c>
       <c r="O38" t="n">
-        <v>3291.752727900046</v>
+        <v>3356.811983574298</v>
       </c>
       <c r="P38" t="n">
-        <v>3682.761086602683</v>
+        <v>3747.820342276935</v>
       </c>
       <c r="Q38" t="n">
-        <v>3928.219333449042</v>
+        <v>3993.278589123293</v>
       </c>
       <c r="R38" t="n">
         <v>4050.650562342385</v>
       </c>
       <c r="S38" t="n">
-        <v>3987.742753931517</v>
+        <v>3987.742753931516</v>
       </c>
       <c r="T38" t="n">
-        <v>3829.639794823712</v>
+        <v>3829.639794823711</v>
       </c>
       <c r="U38" t="n">
         <v>3624.098938897559</v>
@@ -7251,22 +7251,22 @@
         <v>81.0130112468477</v>
       </c>
       <c r="J39" t="n">
-        <v>173.3664220732603</v>
+        <v>185.5848604242673</v>
       </c>
       <c r="K39" t="n">
-        <v>409.367935735376</v>
+        <v>421.586374086383</v>
       </c>
       <c r="L39" t="n">
-        <v>773.0236364049675</v>
+        <v>785.2420747559745</v>
       </c>
       <c r="M39" t="n">
-        <v>1216.749554727367</v>
+        <v>1228.967993078374</v>
       </c>
       <c r="N39" t="n">
-        <v>1686.628222675829</v>
+        <v>1698.846661026836</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.255610400968</v>
+        <v>2106.474048751974</v>
       </c>
       <c r="P39" t="n">
         <v>2414.297898223428</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>770.6512699940224</v>
+        <v>770.6512699940228</v>
       </c>
       <c r="C40" t="n">
-        <v>649.7068455236865</v>
+        <v>649.7068455236868</v>
       </c>
       <c r="D40" t="n">
-        <v>547.5819645689218</v>
+        <v>547.581964568922</v>
       </c>
       <c r="E40" t="n">
-        <v>447.6606294440996</v>
+        <v>447.6606294440999</v>
       </c>
       <c r="F40" t="n">
-        <v>348.7624404037603</v>
+        <v>348.7624404037605</v>
       </c>
       <c r="G40" t="n">
-        <v>229.0393762411775</v>
+        <v>229.0393762411777</v>
       </c>
       <c r="H40" t="n">
         <v>130.7073815258293</v>
@@ -7330,13 +7330,13 @@
         <v>81.0130112468477</v>
       </c>
       <c r="J40" t="n">
-        <v>172.3418197763174</v>
+        <v>172.3418197763175</v>
       </c>
       <c r="K40" t="n">
-        <v>422.0008823505078</v>
+        <v>422.0008823505079</v>
       </c>
       <c r="L40" t="n">
-        <v>783.8508743283544</v>
+        <v>783.8508743283546</v>
       </c>
       <c r="M40" t="n">
         <v>1173.203172511728</v>
@@ -7363,19 +7363,19 @@
         <v>1946.336493019126</v>
       </c>
       <c r="U40" t="n">
-        <v>1705.224730820802</v>
+        <v>1705.224730820803</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.532001072486</v>
+        <v>1498.532001072487</v>
       </c>
       <c r="W40" t="n">
         <v>1257.106589493097</v>
       </c>
       <c r="X40" t="n">
-        <v>1077.10879705265</v>
+        <v>1077.108797052651</v>
       </c>
       <c r="Y40" t="n">
-        <v>904.3079763666912</v>
+        <v>904.3079763666915</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1827.987278938499</v>
+        <v>1523.210382125956</v>
       </c>
       <c r="C41" t="n">
-        <v>1507.016520455658</v>
+        <v>1202.239623643115</v>
       </c>
       <c r="D41" t="n">
-        <v>1196.742580306478</v>
+        <v>1202.239623643115</v>
       </c>
       <c r="E41" t="n">
         <v>1050.843847975127</v>
@@ -7400,34 +7400,34 @@
         <v>687.8497016430907</v>
       </c>
       <c r="G41" t="n">
-        <v>320.7422892261615</v>
+        <v>320.7422892261613</v>
       </c>
       <c r="H41" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395249</v>
       </c>
       <c r="I41" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395249</v>
       </c>
       <c r="J41" t="n">
-        <v>257.5331679811436</v>
+        <v>424.9388170014967</v>
       </c>
       <c r="K41" t="n">
-        <v>588.0212055651746</v>
+        <v>755.4268545855275</v>
       </c>
       <c r="L41" t="n">
-        <v>1280.401982757663</v>
+        <v>1202.328250817783</v>
       </c>
       <c r="M41" t="n">
-        <v>1809.33533219053</v>
+        <v>1731.26160025065</v>
       </c>
       <c r="N41" t="n">
-        <v>2351.441184578845</v>
+        <v>2273.367452638965</v>
       </c>
       <c r="O41" t="n">
         <v>2850.001107429538</v>
       </c>
       <c r="P41" t="n">
-        <v>3241.009466132174</v>
+        <v>3241.009466132175</v>
       </c>
       <c r="Q41" t="n">
         <v>3486.467712978533</v>
@@ -7439,7 +7439,7 @@
         <v>3480.931877786756</v>
       </c>
       <c r="T41" t="n">
-        <v>3322.828918678951</v>
+        <v>3322.828918678952</v>
       </c>
       <c r="U41" t="n">
         <v>3117.288062752799</v>
@@ -7448,13 +7448,13 @@
         <v>2834.2169338668</v>
       </c>
       <c r="W41" t="n">
-        <v>2834.2169338668</v>
+        <v>2529.440037054256</v>
       </c>
       <c r="X41" t="n">
-        <v>2508.742934063291</v>
+        <v>2203.966037250747</v>
       </c>
       <c r="Y41" t="n">
-        <v>2166.59536054505</v>
+        <v>1861.818463732507</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>170.7882675660273</v>
       </c>
       <c r="H42" t="n">
-        <v>80.14829577651186</v>
+        <v>80.14829577651187</v>
       </c>
       <c r="I42" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395249</v>
       </c>
       <c r="J42" t="n">
         <v>163.2302045503651</v>
@@ -7494,7 +7494,7 @@
         <v>399.2317182124808</v>
       </c>
       <c r="L42" t="n">
-        <v>762.8874188820723</v>
+        <v>775.105857233079</v>
       </c>
       <c r="M42" t="n">
         <v>1218.831775555478</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>760.5150524711273</v>
+        <v>760.5150524711271</v>
       </c>
       <c r="C43" t="n">
-        <v>639.5706280007914</v>
+        <v>639.5706280007911</v>
       </c>
       <c r="D43" t="n">
-        <v>537.4457470460266</v>
+        <v>537.4457470460262</v>
       </c>
       <c r="E43" t="n">
-        <v>437.5244119212044</v>
+        <v>437.5244119212041</v>
       </c>
       <c r="F43" t="n">
-        <v>338.6262228808649</v>
+        <v>338.6262228808647</v>
       </c>
       <c r="G43" t="n">
-        <v>218.9031587182823</v>
+        <v>218.9031587182819</v>
       </c>
       <c r="H43" t="n">
-        <v>120.5711640029341</v>
+        <v>120.5711640029331</v>
       </c>
       <c r="I43" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395249</v>
       </c>
       <c r="J43" t="n">
-        <v>162.2056022534225</v>
+        <v>162.2056022534222</v>
       </c>
       <c r="K43" t="n">
-        <v>411.8646648276129</v>
+        <v>411.8646648276126</v>
       </c>
       <c r="L43" t="n">
-        <v>773.7146568054596</v>
+        <v>773.7146568054593</v>
       </c>
       <c r="M43" t="n">
         <v>1163.066954988833</v>
       </c>
       <c r="N43" t="n">
-        <v>1549.714370316392</v>
+        <v>1549.714370316391</v>
       </c>
       <c r="O43" t="n">
-        <v>1894.420239708894</v>
+        <v>1894.420239708893</v>
       </c>
       <c r="P43" t="n">
-        <v>2172.643659075566</v>
+        <v>2172.643659075565</v>
       </c>
       <c r="Q43" t="n">
-        <v>2296.306986973286</v>
+        <v>2296.306986973285</v>
       </c>
       <c r="R43" t="n">
         <v>2253.929354273474</v>
       </c>
       <c r="S43" t="n">
-        <v>2110.026345356318</v>
+        <v>2110.026345356317</v>
       </c>
       <c r="T43" t="n">
         <v>1936.200275496231</v>
@@ -7606,13 +7606,13 @@
         <v>1488.395783549591</v>
       </c>
       <c r="W43" t="n">
-        <v>1246.970371970202</v>
+        <v>1246.970371970201</v>
       </c>
       <c r="X43" t="n">
         <v>1066.972579529755</v>
       </c>
       <c r="Y43" t="n">
-        <v>894.1717588437961</v>
+        <v>894.1717588437958</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1523.210382125955</v>
+        <v>1523.210382125956</v>
       </c>
       <c r="C44" t="n">
         <v>1202.239623643115</v>
       </c>
       <c r="D44" t="n">
-        <v>891.9656834939351</v>
+        <v>891.965683493935</v>
       </c>
       <c r="E44" t="n">
-        <v>554.1691893532619</v>
+        <v>891.965683493935</v>
       </c>
       <c r="F44" t="n">
-        <v>554.1691893532619</v>
+        <v>528.9715371618984</v>
       </c>
       <c r="G44" t="n">
-        <v>320.7422892261615</v>
+        <v>161.864124744969</v>
       </c>
       <c r="H44" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395249</v>
       </c>
       <c r="I44" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395249</v>
       </c>
       <c r="J44" t="n">
         <v>257.5331679811436</v>
       </c>
       <c r="K44" t="n">
-        <v>833.5005865254077</v>
+        <v>588.0212055651746</v>
       </c>
       <c r="L44" t="n">
-        <v>1280.401982757663</v>
+        <v>1034.92260179743</v>
       </c>
       <c r="M44" t="n">
-        <v>1809.33533219053</v>
+        <v>1744.276076516278</v>
       </c>
       <c r="N44" t="n">
-        <v>2351.441184578845</v>
+        <v>2286.381928904594</v>
       </c>
       <c r="O44" t="n">
-        <v>2850.001107429538</v>
+        <v>2784.941851755286</v>
       </c>
       <c r="P44" t="n">
-        <v>3241.009466132174</v>
+        <v>3175.950210457922</v>
       </c>
       <c r="Q44" t="n">
-        <v>3486.467712978533</v>
+        <v>3421.408457304281</v>
       </c>
       <c r="R44" t="n">
         <v>3543.839686197624</v>
@@ -7676,13 +7676,13 @@
         <v>3480.931877786756</v>
       </c>
       <c r="T44" t="n">
-        <v>3322.828918678951</v>
+        <v>3322.828918678952</v>
       </c>
       <c r="U44" t="n">
         <v>3117.288062752799</v>
       </c>
       <c r="V44" t="n">
-        <v>2834.216933866799</v>
+        <v>2834.2169338668</v>
       </c>
       <c r="W44" t="n">
         <v>2529.440037054256</v>
@@ -7691,7 +7691,7 @@
         <v>2203.966037250747</v>
       </c>
       <c r="Y44" t="n">
-        <v>1861.818463732506</v>
+        <v>1861.818463732507</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>170.7882675660273</v>
       </c>
       <c r="H45" t="n">
-        <v>80.14829577651186</v>
+        <v>80.14829577651187</v>
       </c>
       <c r="I45" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395249</v>
       </c>
       <c r="J45" t="n">
         <v>163.2302045503651</v>
@@ -7792,16 +7792,16 @@
         <v>437.5244119212045</v>
       </c>
       <c r="F46" t="n">
-        <v>338.6262228808651</v>
+        <v>338.6262228808652</v>
       </c>
       <c r="G46" t="n">
-        <v>218.9031587182823</v>
+        <v>218.9031587182824</v>
       </c>
       <c r="H46" t="n">
         <v>120.5711640029341</v>
       </c>
       <c r="I46" t="n">
-        <v>70.87679372395247</v>
+        <v>70.87679372395249</v>
       </c>
       <c r="J46" t="n">
         <v>162.2056022534222</v>
@@ -7825,7 +7825,7 @@
         <v>2172.643659075565</v>
       </c>
       <c r="Q46" t="n">
-        <v>2296.306986973285</v>
+        <v>2296.306986973286</v>
       </c>
       <c r="R46" t="n">
         <v>2253.929354273474</v>
@@ -7834,19 +7834,19 @@
         <v>2110.026345356318</v>
       </c>
       <c r="T46" t="n">
-        <v>1936.200275496232</v>
+        <v>1936.200275496231</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.088513297908</v>
+        <v>1695.088513297907</v>
       </c>
       <c r="V46" t="n">
-        <v>1488.395783549592</v>
+        <v>1488.395783549591</v>
       </c>
       <c r="W46" t="n">
         <v>1246.970371970202</v>
       </c>
       <c r="X46" t="n">
-        <v>1066.972579529756</v>
+        <v>1066.972579529755</v>
       </c>
       <c r="Y46" t="n">
         <v>894.1717588437962</v>
@@ -8456,16 +8456,16 @@
         <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>236.0112893083342</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8544,13 +8544,13 @@
         <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
         <v>140.5726331260735</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,13 +8617,13 @@
         <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>182.2425507939215</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>78.86235549482822</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8778,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>12.34185692020895</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>12.3418569202077</v>
       </c>
       <c r="R12" t="n">
-        <v>1.021691808656755</v>
+        <v>1.021691808656698</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>13.14593562184785</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>247.9589706669028</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>12.34185692020898</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>12.34185692020873</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.021691808656755</v>
+        <v>1.021691808656726</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>256.4085172891859</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>312.3036206204399</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>12.34185692020905</v>
+        <v>12.34185692020904</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>47.05165559819528</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,10 +9413,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>256.4085172891853</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>47.05165559819625</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>368.8503637696787</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>12.34185692020861</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>12.34185692020867</v>
       </c>
       <c r="R24" t="n">
         <v>1.021691808656726</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>7.692316296791603</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>107.3561291272024</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>12.34185692020901</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>12.34185692020867</v>
       </c>
       <c r="R27" t="n">
         <v>1.021691808656726</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>53.80631833506851</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>94.67798942321724</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>12.34185692020867</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>13.36354872886544</v>
+        <v>1.021691808656726</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>302.2646615313948</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>83.23472408977125</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,19 +10586,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>368.850363769679</v>
+        <v>425.5051324612582</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>12.34185692020861</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>12.34185692020867</v>
       </c>
       <c r="R36" t="n">
         <v>1.021691808656726</v>
@@ -10823,16 +10823,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>246.5872007474571</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>425.5051324612582</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>12.34185692020907</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>12.34185692020867</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>247.9589706669021</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>78.86235549482922</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11142,10 +11142,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>12.34185692020873</v>
       </c>
       <c r="M42" t="n">
-        <v>12.34185692020867</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>247.9589706669022</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>182.2425507939206</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.4363382927601</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.2404175971396</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>128.2715737428865</v>
       </c>
       <c r="Y11" t="n">
-        <v>211.4674944385067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>132.3437071669301</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.3642048687162</v>
       </c>
       <c r="G14" t="n">
-        <v>335.1859825189196</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.5219295167263</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5341177698648</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>121.2310346140068</v>
       </c>
       <c r="G28" t="n">
         <v>166.0376743939522</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>89.4656972458091</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.97581970098</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5996500344806</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0376743939522</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>89.4656972458091</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.97581970098</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5996500344806</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3620160302689612</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>66.05770136076825</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>144.6549920922736</v>
       </c>
       <c r="F34" t="n">
-        <v>117.685854550233</v>
+        <v>143.6420774686356</v>
       </c>
       <c r="G34" t="n">
         <v>164.2587038396566</v>
@@ -25093,7 +25093,7 @@
         <v>143.0815450868944</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>94.93029689489146</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>87.6867266915135</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>188.1968491466844</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>17.46706596957198</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>223.9306848347416</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>216.8056827977992</v>
       </c>
     </row>
     <row r="35">
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.1712007476877</v>
       </c>
       <c r="E41" t="n">
-        <v>189.9787841912292</v>
+        <v>184.5367112879592</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>301.7291278444178</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.008970684779342e-12</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25871,16 +25871,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.4185291992666</v>
       </c>
       <c r="F44" t="n">
-        <v>359.3642048687162</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>132.3437071669307</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>157.2893828363805</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621769.8441351145</v>
+        <v>621769.8441351143</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621769.8441351146</v>
+        <v>621769.8441351143</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666080.4324904169</v>
+        <v>666080.4324904168</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>665130.4603023711</v>
+        <v>665130.4603023709</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666080.4324904169</v>
+        <v>666080.4324904168</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>798794.4302491122</v>
+      </c>
+      <c r="C2" t="n">
         <v>798794.4302491123</v>
       </c>
-      <c r="C2" t="n">
-        <v>798794.4302491122</v>
-      </c>
       <c r="D2" t="n">
-        <v>799861.730069141</v>
+        <v>799861.7300691408</v>
       </c>
       <c r="E2" t="n">
+        <v>762354.2745645901</v>
+      </c>
+      <c r="F2" t="n">
         <v>762354.2745645905</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>800515.7256176756</v>
+      </c>
+      <c r="H2" t="n">
+        <v>800515.7256176757</v>
+      </c>
+      <c r="I2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="J2" t="n">
+        <v>774010.0706939697</v>
+      </c>
+      <c r="K2" t="n">
+        <v>774010.0706939696</v>
+      </c>
+      <c r="L2" t="n">
+        <v>775002.513393835</v>
+      </c>
+      <c r="M2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="N2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="O2" t="n">
         <v>762354.2745645903</v>
       </c>
-      <c r="G2" t="n">
-        <v>800515.725617676</v>
-      </c>
-      <c r="H2" t="n">
-        <v>800515.7256176763</v>
-      </c>
-      <c r="I2" t="n">
-        <v>800515.7256176756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>774010.0706939694</v>
-      </c>
-      <c r="K2" t="n">
-        <v>774010.0706939697</v>
-      </c>
-      <c r="L2" t="n">
-        <v>775002.5133938346</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176762</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.7256176756</v>
-      </c>
-      <c r="O2" t="n">
-        <v>762354.2745645902</v>
-      </c>
       <c r="P2" t="n">
-        <v>762354.2745645902</v>
+        <v>762354.2745645903</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2135.906088747824</v>
+        <v>2135.906088747859</v>
       </c>
       <c r="E3" t="n">
         <v>1170727.807009027</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>34727.3147470342</v>
+        <v>34727.31474703414</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47717.43581249693</v>
+        <v>47717.43581249685</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1423.176443436438</v>
+        <v>1423.176443436467</v>
       </c>
       <c r="M3" t="n">
-        <v>211922.3670246717</v>
+        <v>211922.3670246716</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>419946.1207682426</v>
       </c>
       <c r="E4" t="n">
-        <v>64231.52484240753</v>
+        <v>64231.52484240739</v>
       </c>
       <c r="F4" t="n">
-        <v>64231.52484240754</v>
+        <v>64231.52484240745</v>
       </c>
       <c r="G4" t="n">
         <v>78268.55407821015</v>
       </c>
       <c r="H4" t="n">
-        <v>78268.55407821015</v>
+        <v>78268.55407821012</v>
       </c>
       <c r="I4" t="n">
-        <v>78268.55407821013</v>
+        <v>78268.55407821012</v>
       </c>
       <c r="J4" t="n">
-        <v>50683.82075751981</v>
+        <v>50683.82075751977</v>
       </c>
       <c r="K4" t="n">
         <v>50683.82075751979</v>
       </c>
       <c r="L4" t="n">
-        <v>51719.77454469436</v>
+        <v>51719.77454469439</v>
       </c>
       <c r="M4" t="n">
-        <v>78268.55407821015</v>
+        <v>78268.55407821006</v>
       </c>
       <c r="N4" t="n">
-        <v>78268.55407821013</v>
+        <v>78268.55407821009</v>
       </c>
       <c r="O4" t="n">
-        <v>64231.52484240742</v>
+        <v>64231.52484240745</v>
       </c>
       <c r="P4" t="n">
-        <v>64231.52484240742</v>
+        <v>64231.52484240744</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>81474.3174696546</v>
+        <v>81474.31746965462</v>
       </c>
       <c r="F5" t="n">
         <v>81474.3174696546</v>
@@ -26485,13 +26485,13 @@
         <v>89177.84278705498</v>
       </c>
       <c r="H5" t="n">
-        <v>89177.84278705498</v>
+        <v>89177.84278705496</v>
       </c>
       <c r="I5" t="n">
         <v>89177.84278705498</v>
       </c>
       <c r="J5" t="n">
-        <v>96271.99570314689</v>
+        <v>96271.99570314688</v>
       </c>
       <c r="K5" t="n">
         <v>96271.99570314688</v>
@@ -26500,10 +26500,10 @@
         <v>96003.4883975799</v>
       </c>
       <c r="M5" t="n">
-        <v>89177.84278705498</v>
+        <v>89177.84278705496</v>
       </c>
       <c r="N5" t="n">
-        <v>89177.84278705498</v>
+        <v>89177.84278705496</v>
       </c>
       <c r="O5" t="n">
         <v>81474.3174696546</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345019.0613595811</v>
+        <v>345014.6477817128</v>
       </c>
       <c r="C6" t="n">
-        <v>345019.061359581</v>
+        <v>345014.6477817129</v>
       </c>
       <c r="D6" t="n">
-        <v>343734.0396310546</v>
+        <v>343732.3627193914</v>
       </c>
       <c r="E6" t="n">
-        <v>-554079.3747564983</v>
+        <v>-554177.2246309939</v>
       </c>
       <c r="F6" t="n">
-        <v>616648.4322525281</v>
+        <v>616550.5823780334</v>
       </c>
       <c r="G6" t="n">
-        <v>598342.0140053767</v>
+        <v>598342.0140053764</v>
       </c>
       <c r="H6" t="n">
+        <v>633069.3287524106</v>
+      </c>
+      <c r="I6" t="n">
         <v>633069.3287524112</v>
       </c>
-      <c r="I6" t="n">
-        <v>633069.3287524105</v>
-      </c>
       <c r="J6" t="n">
-        <v>579336.8184208057</v>
+        <v>579268.8552030531</v>
       </c>
       <c r="K6" t="n">
-        <v>627054.254233303</v>
+        <v>626986.2910155498</v>
       </c>
       <c r="L6" t="n">
-        <v>625856.0740081239</v>
+        <v>625790.6555152427</v>
       </c>
       <c r="M6" t="n">
-        <v>421146.9617277394</v>
+        <v>421146.9617277398</v>
       </c>
       <c r="N6" t="n">
-        <v>633069.3287524105</v>
+        <v>633069.3287524114</v>
       </c>
       <c r="O6" t="n">
-        <v>616648.4322525281</v>
+        <v>616550.5823780332</v>
       </c>
       <c r="P6" t="n">
-        <v>616648.4322525281</v>
+        <v>616550.5823780332</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F2" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="H2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="I2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>1.778970554295583</v>
       </c>
       <c r="M2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N2" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O2" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P2" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="3">
@@ -26811,7 +26811,7 @@
         <v>1012.662640585596</v>
       </c>
       <c r="J4" t="n">
-        <v>1195.038066020527</v>
+        <v>1195.038066020526</v>
       </c>
       <c r="K4" t="n">
         <v>1195.038066020526</v>
@@ -26826,10 +26826,10 @@
         <v>1012.662640585596</v>
       </c>
       <c r="O4" t="n">
-        <v>885.959921549406</v>
+        <v>885.9599215494061</v>
       </c>
       <c r="P4" t="n">
-        <v>885.959921549406</v>
+        <v>885.9599215494061</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.778970554295548</v>
+        <v>1.778970554295583</v>
       </c>
       <c r="M2" t="n">
-        <v>45.73287031869967</v>
+        <v>45.73287031869965</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="E4" t="n">
         <v>879.0838758076947</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>126.7027190361903</v>
+        <v>126.70271903619</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>182.3754254349303</v>
+        <v>182.3754254349301</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>703.5844961144762</v>
+        <v>703.5844961144759</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="M4" t="n">
         <v>879.0838758076947</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>126.7027190361903</v>
+        <v>126.70271903619</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>202.9636484969459</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27910,13 +27910,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>321.6958373808355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27938,10 +27938,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>139.0127913040845</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,10 +27986,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>219.0653363392634</v>
+        <v>219.8849609916754</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
         <v>244.8189374192082</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.9559344402259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>161.9345582691593</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28056,10 +28056,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>280.4665772472916</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I11" t="n">
-        <v>42.59677880594418</v>
+        <v>42.59677880594413</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y11" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="J13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="K13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="L13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="M13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="R13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="S13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I14" t="n">
-        <v>42.59677880594418</v>
+        <v>42.59677880594415</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y14" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="J16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299522</v>
       </c>
       <c r="K16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="L16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="M16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="R16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="S16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.51184087299529</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="C17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="D17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="E17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="F17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="G17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="H17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="I17" t="n">
         <v>42.59677880594415</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="T17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="U17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="V17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="W17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="X17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="Y17" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="C19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="D19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="E19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="F19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="G19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="H19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="I19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="J19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="K19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="L19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="M19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299504</v>
       </c>
       <c r="N19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="O19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="P19" t="n">
-        <v>47.51184087299504</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="R19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="S19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="T19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="U19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="V19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="W19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="X19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="C20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="D20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="E20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="F20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="G20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="H20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="I20" t="n">
         <v>42.59677880594415</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="T20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="U20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="V20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="W20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="X20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="C22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="D22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="E22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="F22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="G22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="H22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="I22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="J22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="K22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="L22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="M22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="N22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="O22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="P22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299487</v>
       </c>
       <c r="R22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="S22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="T22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="U22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="V22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="W22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="X22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="C23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="D23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="E23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="F23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="G23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="H23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="I23" t="n">
         <v>42.59677880594415</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="T23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="U23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="V23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="W23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="X23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="C25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="D25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="E25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="F25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="G25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="H25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="I25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="J25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="K25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="L25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="M25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="N25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="O25" t="n">
-        <v>47.51184087299509</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="P25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="R25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="S25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="T25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="U25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="V25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="W25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="X25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299525</v>
       </c>
     </row>
     <row r="26">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I35" t="n">
         <v>42.59677880594415</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="J37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299511</v>
       </c>
       <c r="K37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="L37" t="n">
-        <v>47.51184087299509</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="M37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="R37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="S37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I38" t="n">
         <v>42.59677880594415</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="J40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="K40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="L40" t="n">
-        <v>47.51184087299509</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="M40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="R40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="S40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.51184087299526</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I41" t="n">
         <v>42.59677880594415</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="J43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="K43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="L43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="M43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="R43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="S43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y43" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I44" t="n">
         <v>42.59677880594415</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="C46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="D46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="E46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="F46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="G46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="H46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="I46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="J46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="K46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="L46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="M46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="N46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="O46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="P46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="R46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="S46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="T46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="U46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="V46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="W46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="X46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.51184087299523</v>
+        <v>47.51184087299524</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379719</v>
       </c>
       <c r="H11" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558506</v>
       </c>
       <c r="I11" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J11" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056673</v>
       </c>
       <c r="K11" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349109</v>
       </c>
       <c r="L11" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197407</v>
       </c>
       <c r="M11" t="n">
-        <v>764.6223437655218</v>
+        <v>764.6223437655221</v>
       </c>
       <c r="N11" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756974</v>
       </c>
       <c r="O11" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890527</v>
       </c>
       <c r="P11" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387408</v>
       </c>
       <c r="Q11" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515795</v>
       </c>
       <c r="R11" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S11" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649045</v>
       </c>
       <c r="T11" t="n">
-        <v>19.06207917440972</v>
+        <v>19.06207917440973</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503775</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H12" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I12" t="n">
-        <v>80.21784581938127</v>
+        <v>80.2178458193813</v>
       </c>
       <c r="J12" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K12" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L12" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552193</v>
       </c>
       <c r="M12" t="n">
-        <v>590.3420322274719</v>
+        <v>590.3420322274721</v>
       </c>
       <c r="N12" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029925</v>
       </c>
       <c r="O12" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304429</v>
       </c>
       <c r="P12" t="n">
-        <v>444.907588698627</v>
+        <v>444.9075886986271</v>
       </c>
       <c r="Q12" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R12" t="n">
-        <v>144.6578121553072</v>
+        <v>144.6578121553073</v>
       </c>
       <c r="S12" t="n">
-        <v>43.27676140701649</v>
+        <v>43.2767614070165</v>
       </c>
       <c r="T12" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491895</v>
       </c>
       <c r="U12" t="n">
         <v>0.1532825079351235</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.9533049645066</v>
+        <v>1.953304964506601</v>
       </c>
       <c r="H13" t="n">
-        <v>17.3666568662496</v>
+        <v>17.36665686624961</v>
       </c>
       <c r="I13" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807125</v>
       </c>
       <c r="J13" t="n">
-        <v>138.0986609906166</v>
+        <v>138.0986609906167</v>
       </c>
       <c r="K13" t="n">
         <v>226.9385222399486</v>
       </c>
       <c r="L13" t="n">
-        <v>290.403176268554</v>
+        <v>290.4031762685541</v>
       </c>
       <c r="M13" t="n">
-        <v>306.1894318453391</v>
+        <v>306.1894318453392</v>
       </c>
       <c r="N13" t="n">
-        <v>298.9089315230875</v>
+        <v>298.9089315230876</v>
       </c>
       <c r="O13" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P13" t="n">
-        <v>236.2433567981436</v>
+        <v>236.2433567981437</v>
       </c>
       <c r="Q13" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R13" t="n">
-        <v>87.82769413136037</v>
+        <v>87.8276941313604</v>
       </c>
       <c r="S13" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T13" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800927</v>
       </c>
       <c r="U13" t="n">
         <v>0.1065439071549056</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.354558349379717</v>
+        <v>4.354558349379718</v>
       </c>
       <c r="H14" t="n">
-        <v>44.59612069558504</v>
+        <v>44.59612069558505</v>
       </c>
       <c r="I14" t="n">
-        <v>167.8791107644617</v>
+        <v>167.8791107644618</v>
       </c>
       <c r="J14" t="n">
-        <v>369.5876967056671</v>
+        <v>369.5876967056672</v>
       </c>
       <c r="K14" t="n">
-        <v>553.9161516349106</v>
+        <v>553.9161516349108</v>
       </c>
       <c r="L14" t="n">
-        <v>687.1819667197403</v>
+        <v>687.1819667197404</v>
       </c>
       <c r="M14" t="n">
-        <v>764.6223437655218</v>
+        <v>764.622343765522</v>
       </c>
       <c r="N14" t="n">
-        <v>776.994732675697</v>
+        <v>776.9947326756972</v>
       </c>
       <c r="O14" t="n">
-        <v>733.6940930890524</v>
+        <v>733.6940930890526</v>
       </c>
       <c r="P14" t="n">
-        <v>626.1909338387405</v>
+        <v>626.1909338387406</v>
       </c>
       <c r="Q14" t="n">
-        <v>470.2433129515793</v>
+        <v>470.2433129515794</v>
       </c>
       <c r="R14" t="n">
-        <v>273.5370259142239</v>
+        <v>273.537025914224</v>
       </c>
       <c r="S14" t="n">
-        <v>99.22949838649041</v>
+        <v>99.22949838649043</v>
       </c>
       <c r="T14" t="n">
         <v>19.06207917440972</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3483646679503773</v>
+        <v>0.3483646679503774</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.329894120613876</v>
+        <v>2.329894120613877</v>
       </c>
       <c r="H15" t="n">
-        <v>22.50187216487612</v>
+        <v>22.50187216487613</v>
       </c>
       <c r="I15" t="n">
-        <v>80.21784581938127</v>
+        <v>80.21784581938128</v>
       </c>
       <c r="J15" t="n">
-        <v>220.1239002286996</v>
+        <v>220.1239002286997</v>
       </c>
       <c r="K15" t="n">
-        <v>376.2268063098293</v>
+        <v>376.2268063098294</v>
       </c>
       <c r="L15" t="n">
-        <v>505.883370355219</v>
+        <v>505.8833703552191</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3420322274719</v>
+        <v>590.342032227472</v>
       </c>
       <c r="N15" t="n">
-        <v>605.9666292029923</v>
+        <v>605.9666292029924</v>
       </c>
       <c r="O15" t="n">
-        <v>554.3410805304427</v>
+        <v>554.3410805304428</v>
       </c>
       <c r="P15" t="n">
         <v>444.907588698627</v>
       </c>
       <c r="Q15" t="n">
-        <v>297.4089407295888</v>
+        <v>297.4089407295889</v>
       </c>
       <c r="R15" t="n">
         <v>144.6578121553072</v>
@@ -32105,7 +32105,7 @@
         <v>43.27676140701649</v>
       </c>
       <c r="T15" t="n">
-        <v>9.391108319491892</v>
+        <v>9.391108319491893</v>
       </c>
       <c r="U15" t="n">
         <v>0.1532825079351235</v>
@@ -32151,7 +32151,7 @@
         <v>17.3666568662496</v>
       </c>
       <c r="I16" t="n">
-        <v>58.74120747807122</v>
+        <v>58.74120747807123</v>
       </c>
       <c r="J16" t="n">
         <v>138.0986609906166</v>
@@ -32169,22 +32169,22 @@
         <v>298.9089315230875</v>
       </c>
       <c r="O16" t="n">
-        <v>276.0907780740784</v>
+        <v>276.0907780740785</v>
       </c>
       <c r="P16" t="n">
         <v>236.2433567981436</v>
       </c>
       <c r="Q16" t="n">
-        <v>163.562654800639</v>
+        <v>163.5626548006391</v>
       </c>
       <c r="R16" t="n">
-        <v>87.82769413136037</v>
+        <v>87.82769413136039</v>
       </c>
       <c r="S16" t="n">
-        <v>34.04077833599228</v>
+        <v>34.04077833599229</v>
       </c>
       <c r="T16" t="n">
-        <v>8.345939393800924</v>
+        <v>8.345939393800926</v>
       </c>
       <c r="U16" t="n">
         <v>0.1065439071549056</v>
@@ -35176,16 +35176,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="O8" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
         <v>6.598225711743297</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>188.5417921789808</v>
+        <v>357.6384073510548</v>
       </c>
       <c r="K11" t="n">
-        <v>333.8263005899301</v>
+        <v>333.8263005899303</v>
       </c>
       <c r="L11" t="n">
-        <v>451.4155517497531</v>
+        <v>451.4155517497534</v>
       </c>
       <c r="M11" t="n">
-        <v>716.5186613321706</v>
+        <v>534.2761105382494</v>
       </c>
       <c r="N11" t="n">
-        <v>547.5816690791062</v>
+        <v>547.5816690791064</v>
       </c>
       <c r="O11" t="n">
-        <v>503.5958816673657</v>
+        <v>503.5958816673659</v>
       </c>
       <c r="P11" t="n">
-        <v>394.957938083471</v>
+        <v>394.9579380834712</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.9376230771298</v>
+        <v>326.7999785719582</v>
       </c>
       <c r="R11" t="n">
-        <v>123.6679079730743</v>
+        <v>57.95148810009192</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>93.28627356203293</v>
+        <v>93.28627356203302</v>
       </c>
       <c r="K12" t="n">
-        <v>238.3853673354703</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L12" t="n">
-        <v>367.3289905753448</v>
+        <v>367.3289905753451</v>
       </c>
       <c r="M12" t="n">
-        <v>448.2079983054536</v>
+        <v>448.2079983054538</v>
       </c>
       <c r="N12" t="n">
-        <v>486.966774039868</v>
+        <v>474.6249171196592</v>
       </c>
       <c r="O12" t="n">
-        <v>411.7448360859983</v>
+        <v>411.7448360859985</v>
       </c>
       <c r="P12" t="n">
-        <v>310.9331812842967</v>
+        <v>310.9331812842969</v>
       </c>
       <c r="Q12" t="n">
-        <v>157.4271666435673</v>
+        <v>169.7690235637751</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,13 +35571,13 @@
         <v>252.180871287061</v>
       </c>
       <c r="L13" t="n">
-        <v>365.5050424018654</v>
+        <v>365.5050424018655</v>
       </c>
       <c r="M13" t="n">
-        <v>393.2851496801749</v>
+        <v>393.285149680175</v>
       </c>
       <c r="N13" t="n">
-        <v>390.5529447753113</v>
+        <v>390.5529447753114</v>
       </c>
       <c r="O13" t="n">
         <v>348.1877468611134</v>
@@ -35586,7 +35586,7 @@
         <v>281.0337569360324</v>
       </c>
       <c r="Q13" t="n">
-        <v>124.9124524219399</v>
+        <v>124.91245242194</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>357.6384073510546</v>
+        <v>188.5417921789809</v>
       </c>
       <c r="K14" t="n">
-        <v>333.8263005899301</v>
+        <v>333.8263005899302</v>
       </c>
       <c r="L14" t="n">
-        <v>464.5614873716009</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M14" t="n">
-        <v>534.2761105382491</v>
+        <v>534.2761105382493</v>
       </c>
       <c r="N14" t="n">
-        <v>547.5816690791062</v>
+        <v>795.540639746009</v>
       </c>
       <c r="O14" t="n">
-        <v>503.5958816673657</v>
+        <v>503.5958816673658</v>
       </c>
       <c r="P14" t="n">
-        <v>394.957938083471</v>
+        <v>394.9579380834711</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.9376230771298</v>
+        <v>247.9376230771299</v>
       </c>
       <c r="R14" t="n">
-        <v>123.6679079730743</v>
+        <v>57.95148810009186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>105.6281304822419</v>
+        <v>93.28627356203296</v>
       </c>
       <c r="K15" t="n">
-        <v>238.3853673354703</v>
+        <v>238.3853673354704</v>
       </c>
       <c r="L15" t="n">
-        <v>367.3289905753448</v>
+        <v>379.6708474955537</v>
       </c>
       <c r="M15" t="n">
-        <v>448.2079983054536</v>
+        <v>448.2079983054537</v>
       </c>
       <c r="N15" t="n">
-        <v>474.624917119659</v>
+        <v>474.6249171196591</v>
       </c>
       <c r="O15" t="n">
-        <v>411.7448360859983</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P15" t="n">
-        <v>310.9331812842967</v>
+        <v>310.9331812842968</v>
       </c>
       <c r="Q15" t="n">
-        <v>157.4271666435673</v>
+        <v>157.4271666435674</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.25132174693911</v>
+        <v>92.25132174693907</v>
       </c>
       <c r="K16" t="n">
         <v>252.180871287061</v>
@@ -35820,7 +35820,7 @@
         <v>348.1877468611134</v>
       </c>
       <c r="P16" t="n">
-        <v>281.0337569360324</v>
+        <v>281.0337569360323</v>
       </c>
       <c r="Q16" t="n">
         <v>124.9124524219399</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>188.5417921789809</v>
+        <v>357.6384073510547</v>
       </c>
       <c r="K17" t="n">
-        <v>333.8263005899302</v>
+        <v>657.971713161095</v>
       </c>
       <c r="L17" t="n">
         <v>451.4155517497532</v>
       </c>
       <c r="M17" t="n">
-        <v>534.2761105382493</v>
+        <v>790.6846278274352</v>
       </c>
       <c r="N17" t="n">
-        <v>984.9285934910904</v>
+        <v>547.5816690791062</v>
       </c>
       <c r="O17" t="n">
-        <v>815.8995022878057</v>
+        <v>503.5958816673658</v>
       </c>
       <c r="P17" t="n">
         <v>394.9579380834711</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.25132174693911</v>
+        <v>92.2513217469391</v>
       </c>
       <c r="K19" t="n">
         <v>252.180871287061</v>
       </c>
       <c r="L19" t="n">
-        <v>365.5050424018655</v>
+        <v>365.5050424018654</v>
       </c>
       <c r="M19" t="n">
-        <v>393.285149680175</v>
+        <v>393.2851496801748</v>
       </c>
       <c r="N19" t="n">
-        <v>390.5529447753114</v>
+        <v>390.5529447753113</v>
       </c>
       <c r="O19" t="n">
         <v>348.1877468611134</v>
       </c>
       <c r="P19" t="n">
-        <v>281.0337569360321</v>
+        <v>281.0337569360324</v>
       </c>
       <c r="Q19" t="n">
         <v>124.9124524219399</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>357.6384073510547</v>
+        <v>188.5417921789809</v>
       </c>
       <c r="K20" t="n">
-        <v>657.971713161095</v>
+        <v>380.8779561881255</v>
       </c>
       <c r="L20" t="n">
         <v>451.4155517497532</v>
@@ -36133,10 +36133,10 @@
         <v>547.5816690791062</v>
       </c>
       <c r="O20" t="n">
-        <v>503.5958816673658</v>
+        <v>884.3960629301112</v>
       </c>
       <c r="P20" t="n">
-        <v>651.3664553726564</v>
+        <v>716.7566462549537</v>
       </c>
       <c r="Q20" t="n">
         <v>247.9376230771299</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.25132174693911</v>
+        <v>92.2513217469391</v>
       </c>
       <c r="K22" t="n">
         <v>252.180871287061</v>
@@ -36297,7 +36297,7 @@
         <v>281.0337569360324</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.9124524219399</v>
+        <v>124.9124524219395</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>188.5417921789809</v>
       </c>
       <c r="K23" t="n">
-        <v>380.8779561881265</v>
+        <v>333.8263005899302</v>
       </c>
       <c r="L23" t="n">
         <v>451.4155517497532</v>
@@ -36367,13 +36367,13 @@
         <v>534.2761105382493</v>
       </c>
       <c r="N23" t="n">
-        <v>547.5816690791062</v>
+        <v>916.4320328487848</v>
       </c>
       <c r="O23" t="n">
         <v>884.3960629301112</v>
       </c>
       <c r="P23" t="n">
-        <v>716.7566462549537</v>
+        <v>394.9579380834711</v>
       </c>
       <c r="Q23" t="n">
         <v>247.9376230771299</v>
@@ -36449,13 +36449,13 @@
         <v>474.6249171196591</v>
       </c>
       <c r="O24" t="n">
-        <v>424.086693006207</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P24" t="n">
         <v>310.9331812842968</v>
       </c>
       <c r="Q24" t="n">
-        <v>157.4271666435674</v>
+        <v>169.769023563776</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.25132174693911</v>
+        <v>92.2513217469391</v>
       </c>
       <c r="K25" t="n">
         <v>252.180871287061</v>
       </c>
       <c r="L25" t="n">
-        <v>365.5050424018655</v>
+        <v>365.5050424018654</v>
       </c>
       <c r="M25" t="n">
         <v>393.285149680175</v>
       </c>
       <c r="N25" t="n">
-        <v>390.5529447753114</v>
+        <v>390.5529447753113</v>
       </c>
       <c r="O25" t="n">
-        <v>348.1877468611132</v>
+        <v>348.1877468611134</v>
       </c>
       <c r="P25" t="n">
         <v>281.0337569360324</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>196.2341084757725</v>
+        <v>188.5417921789809</v>
       </c>
       <c r="K26" t="n">
-        <v>657.971713161095</v>
+        <v>333.8263005899302</v>
       </c>
       <c r="L26" t="n">
         <v>451.4155517497532</v>
       </c>
       <c r="M26" t="n">
-        <v>534.2761105382493</v>
+        <v>983.7896440310818</v>
       </c>
       <c r="N26" t="n">
-        <v>984.9285934910904</v>
+        <v>654.9377982063086</v>
       </c>
       <c r="O26" t="n">
         <v>884.3960629301112</v>
@@ -36613,7 +36613,7 @@
         <v>716.7566462549537</v>
       </c>
       <c r="Q26" t="n">
-        <v>247.9376230771299</v>
+        <v>460.2526137370346</v>
       </c>
       <c r="R26" t="n">
         <v>57.95148810009186</v>
@@ -36677,7 +36677,7 @@
         <v>238.3853673354704</v>
       </c>
       <c r="L27" t="n">
-        <v>379.670847495554</v>
+        <v>367.328990575345</v>
       </c>
       <c r="M27" t="n">
         <v>448.2079983054537</v>
@@ -36692,7 +36692,7 @@
         <v>310.9331812842968</v>
       </c>
       <c r="Q27" t="n">
-        <v>157.4271666435674</v>
+        <v>169.769023563776</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>357.6384073510547</v>
+        <v>188.5417921789809</v>
       </c>
       <c r="K29" t="n">
-        <v>657.971713161095</v>
+        <v>333.8263005899302</v>
       </c>
       <c r="L29" t="n">
-        <v>451.4155517497532</v>
+        <v>505.2218700848217</v>
       </c>
       <c r="M29" t="n">
         <v>534.2761105382493</v>
@@ -36847,10 +36847,10 @@
         <v>884.3960629301112</v>
       </c>
       <c r="P29" t="n">
-        <v>489.6359275066883</v>
+        <v>716.7566462549537</v>
       </c>
       <c r="Q29" t="n">
-        <v>247.9376230771299</v>
+        <v>460.2526137370346</v>
       </c>
       <c r="R29" t="n">
         <v>123.6679079730743</v>
@@ -36926,13 +36926,13 @@
         <v>411.7448360859984</v>
       </c>
       <c r="P30" t="n">
-        <v>310.9331812842968</v>
+        <v>323.2750382045054</v>
       </c>
       <c r="Q30" t="n">
         <v>157.4271666435674</v>
       </c>
       <c r="R30" t="n">
-        <v>12.34185692020871</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>657.971713161095</v>
       </c>
       <c r="L32" t="n">
-        <v>753.680213281148</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M32" t="n">
-        <v>534.2761105382493</v>
+        <v>617.5108346280206</v>
       </c>
       <c r="N32" t="n">
         <v>984.9285934910904</v>
       </c>
       <c r="O32" t="n">
-        <v>884.3960629301112</v>
+        <v>503.5958816673658</v>
       </c>
       <c r="P32" t="n">
-        <v>394.9579380834711</v>
+        <v>716.7566462549537</v>
       </c>
       <c r="Q32" t="n">
-        <v>247.9376230771299</v>
+        <v>460.2526137370346</v>
       </c>
       <c r="R32" t="n">
-        <v>57.95148810009186</v>
+        <v>123.6679079730743</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>46.51845142823943</v>
       </c>
       <c r="K34" t="n">
-        <v>206.4480009683613</v>
+        <v>206.4480009683614</v>
       </c>
       <c r="L34" t="n">
         <v>319.7721720831657</v>
@@ -37306,19 +37306,19 @@
         <v>188.5417921789809</v>
       </c>
       <c r="K35" t="n">
-        <v>333.8263005899302</v>
+        <v>657.971713161095</v>
       </c>
       <c r="L35" t="n">
         <v>451.4155517497532</v>
       </c>
       <c r="M35" t="n">
-        <v>903.1264743079283</v>
+        <v>959.7812429995075</v>
       </c>
       <c r="N35" t="n">
         <v>547.5816690791062</v>
       </c>
       <c r="O35" t="n">
-        <v>884.3960629301112</v>
+        <v>503.5958816673658</v>
       </c>
       <c r="P35" t="n">
         <v>394.9579380834711</v>
@@ -37397,13 +37397,13 @@
         <v>474.6249171196591</v>
       </c>
       <c r="O36" t="n">
-        <v>424.086693006207</v>
+        <v>411.7448360859984</v>
       </c>
       <c r="P36" t="n">
         <v>310.9331812842968</v>
       </c>
       <c r="Q36" t="n">
-        <v>157.4271666435674</v>
+        <v>169.769023563776</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.25132174693911</v>
+        <v>92.25132174693896</v>
       </c>
       <c r="K37" t="n">
         <v>252.180871287061</v>
       </c>
       <c r="L37" t="n">
-        <v>365.5050424018652</v>
+        <v>365.5050424018654</v>
       </c>
       <c r="M37" t="n">
         <v>393.285149680175</v>
       </c>
       <c r="N37" t="n">
-        <v>390.5529447753114</v>
+        <v>390.5529447753113</v>
       </c>
       <c r="O37" t="n">
         <v>348.1877468611134</v>
       </c>
       <c r="P37" t="n">
-        <v>281.0337569360324</v>
+        <v>281.0337569360323</v>
       </c>
       <c r="Q37" t="n">
         <v>124.9124524219399</v>
@@ -37543,16 +37543,16 @@
         <v>188.5417921789809</v>
       </c>
       <c r="K38" t="n">
-        <v>580.4135013373873</v>
+        <v>657.971713161095</v>
       </c>
       <c r="L38" t="n">
         <v>451.4155517497532</v>
       </c>
       <c r="M38" t="n">
-        <v>534.2761105382493</v>
+        <v>959.7812429995075</v>
       </c>
       <c r="N38" t="n">
-        <v>984.9285934910904</v>
+        <v>547.5816690791062</v>
       </c>
       <c r="O38" t="n">
         <v>503.5958816673658</v>
@@ -37564,7 +37564,7 @@
         <v>247.9376230771299</v>
       </c>
       <c r="R38" t="n">
-        <v>123.6679079730743</v>
+        <v>57.95148810009186</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>93.28627356203296</v>
+        <v>105.628130482242</v>
       </c>
       <c r="K39" t="n">
         <v>238.3853673354704</v>
@@ -37637,7 +37637,7 @@
         <v>411.7448360859984</v>
       </c>
       <c r="P39" t="n">
-        <v>323.2750382045054</v>
+        <v>310.9331812842968</v>
       </c>
       <c r="Q39" t="n">
         <v>157.4271666435674</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.25132174693911</v>
+        <v>92.25132174693908</v>
       </c>
       <c r="K40" t="n">
         <v>252.180871287061</v>
       </c>
       <c r="L40" t="n">
-        <v>365.5050424018652</v>
+        <v>365.5050424018654</v>
       </c>
       <c r="M40" t="n">
         <v>393.285149680175</v>
       </c>
       <c r="N40" t="n">
-        <v>390.5529447753114</v>
+        <v>390.5529447753113</v>
       </c>
       <c r="O40" t="n">
         <v>348.1877468611134</v>
       </c>
       <c r="P40" t="n">
-        <v>281.0337569360324</v>
+        <v>281.0337569360323</v>
       </c>
       <c r="Q40" t="n">
         <v>124.9124524219399</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>188.5417921789809</v>
+        <v>357.6384073510547</v>
       </c>
       <c r="K41" t="n">
         <v>333.8263005899302</v>
       </c>
       <c r="L41" t="n">
-        <v>699.3745224166553</v>
+        <v>451.4155517497532</v>
       </c>
       <c r="M41" t="n">
         <v>534.2761105382493</v>
@@ -37792,7 +37792,7 @@
         <v>547.5816690791062</v>
       </c>
       <c r="O41" t="n">
-        <v>503.5958816673658</v>
+        <v>582.458237162195</v>
       </c>
       <c r="P41" t="n">
         <v>394.9579380834711</v>
@@ -37862,10 +37862,10 @@
         <v>238.3853673354704</v>
       </c>
       <c r="L42" t="n">
-        <v>367.328990575345</v>
+        <v>379.6708474955537</v>
       </c>
       <c r="M42" t="n">
-        <v>460.5498552256624</v>
+        <v>448.2079983054537</v>
       </c>
       <c r="N42" t="n">
         <v>474.6249171196591</v>
@@ -37950,7 +37950,7 @@
         <v>390.5529447753113</v>
       </c>
       <c r="O43" t="n">
-        <v>348.1877468611133</v>
+        <v>348.1877468611134</v>
       </c>
       <c r="P43" t="n">
         <v>281.0337569360323</v>
@@ -38017,13 +38017,13 @@
         <v>188.5417921789809</v>
       </c>
       <c r="K44" t="n">
-        <v>581.7852712568324</v>
+        <v>333.8263005899302</v>
       </c>
       <c r="L44" t="n">
         <v>451.4155517497532</v>
       </c>
       <c r="M44" t="n">
-        <v>534.2761105382493</v>
+        <v>716.5186613321699</v>
       </c>
       <c r="N44" t="n">
         <v>547.5816690791062</v>
@@ -38038,7 +38038,7 @@
         <v>247.9376230771299</v>
       </c>
       <c r="R44" t="n">
-        <v>57.95148810009186</v>
+        <v>123.6679079730743</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>365.5050424018654</v>
       </c>
       <c r="M46" t="n">
-        <v>393.2851496801749</v>
+        <v>393.285149680175</v>
       </c>
       <c r="N46" t="n">
         <v>390.5529447753113</v>
       </c>
       <c r="O46" t="n">
-        <v>348.1877468611133</v>
+        <v>348.1877468611134</v>
       </c>
       <c r="P46" t="n">
         <v>281.0337569360323</v>
